--- a/Outputs/5. Budget constrained/Grid Search/Output Files/1750000/Output_22_14.xlsx
+++ b/Outputs/5. Budget constrained/Grid Search/Output Files/1750000/Output_22_14.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-402937.1085524665</v>
+        <v>-405425.8475819836</v>
       </c>
     </row>
     <row r="7">
@@ -665,19 +665,19 @@
         <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>0</v>
+        <v>410.9217256534534</v>
       </c>
       <c r="H2" t="n">
-        <v>250.1377632135443</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>27.83470422320566</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -707,25 +707,25 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>109.1877617881758</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
         <v>203.9179701396201</v>
       </c>
       <c r="U2" t="n">
-        <v>250.995171958902</v>
+        <v>127.6072314066356</v>
       </c>
       <c r="V2" t="n">
-        <v>204.3643179178678</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -783,7 +783,7 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>0.1429098734098397</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S3" t="n">
         <v>128.1435076414547</v>
@@ -820,19 +820,19 @@
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
         <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I4" t="n">
         <v>96.35242040983809</v>
@@ -862,19 +862,19 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>189.7690253314419</v>
+        <v>142.6032471204645</v>
       </c>
       <c r="T4" t="n">
         <v>219.5489492761692</v>
       </c>
       <c r="U4" t="n">
-        <v>264.6171092506985</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V4" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W4" t="n">
         <v>286.522998336591</v>
@@ -883,7 +883,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y4" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -899,10 +899,10 @@
         <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
-        <v>75.4571321610379</v>
+        <v>107.0120291964068</v>
       </c>
       <c r="F5" t="n">
         <v>406.8760457417114</v>
@@ -914,7 +914,7 @@
         <v>294.6077643873205</v>
       </c>
       <c r="I5" t="n">
-        <v>41.57692977292595</v>
+        <v>41.57692977292598</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -947,7 +947,7 @@
         <v>109.1877617881758</v>
       </c>
       <c r="T5" t="n">
-        <v>203.9179701396201</v>
+        <v>203.9179701396202</v>
       </c>
       <c r="U5" t="n">
         <v>250.995171958902</v>
@@ -962,7 +962,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -990,10 +990,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H6" t="n">
-        <v>89.59687541851115</v>
+        <v>89.59687541851116</v>
       </c>
       <c r="I6" t="n">
-        <v>18.81721868247742</v>
+        <v>18.81721868247745</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -1020,7 +1020,7 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>0.1429098734098204</v>
+        <v>0.1429098734089393</v>
       </c>
       <c r="S6" t="n">
         <v>128.1435076414547</v>
@@ -1063,16 +1063,16 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>166.0258082590282</v>
+        <v>120.7389995830098</v>
       </c>
       <c r="H7" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>0</v>
+        <v>96.35242040983812</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -1102,22 +1102,22 @@
         <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T7" t="n">
         <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X7" t="n">
-        <v>49.2789823089696</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
         <v>218.5846533520948</v>
@@ -1130,28 +1130,28 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>160.03175544124</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
-        <v>406.8760457417114</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G8" t="n">
         <v>410.9217256534534</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>255.3537936326221</v>
       </c>
       <c r="I8" t="n">
-        <v>41.57692977292592</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1181,22 +1181,22 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T8" t="n">
         <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
         <v>386.2379386560536</v>
@@ -1227,10 +1227,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H9" t="n">
-        <v>89.59687541851115</v>
+        <v>89.59687541851116</v>
       </c>
       <c r="I9" t="n">
-        <v>18.8172186824774</v>
+        <v>18.81721868247745</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -1257,10 +1257,10 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>0.142909873409792</v>
+        <v>0.1429098734098488</v>
       </c>
       <c r="S9" t="n">
-        <v>128.1435076414546</v>
+        <v>128.1435076414547</v>
       </c>
       <c r="T9" t="n">
         <v>190.7165703189231</v>
@@ -1291,25 +1291,25 @@
         <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>54.70006378617011</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>166.0258082590282</v>
+        <v>163.6898441249709</v>
       </c>
       <c r="H10" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>96.35242040983809</v>
+        <v>0</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -1348,16 +1348,16 @@
         <v>286.2118382056129</v>
       </c>
       <c r="V10" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X10" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="11">
@@ -1370,7 +1370,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C11" t="n">
-        <v>365.2728917710079</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D11" t="n">
         <v>354.683041620683</v>
@@ -1525,7 +1525,7 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>179.831980181936</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
         <v>167.2468210986278</v>
@@ -1540,13 +1540,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H13" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I13" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1582,10 +1582,10 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U13" t="n">
-        <v>120.1447214650611</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V13" t="n">
-        <v>252.137643323828</v>
+        <v>1.839588425940237</v>
       </c>
       <c r="W13" t="n">
         <v>286.522998336591</v>
@@ -1616,7 +1616,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F14" t="n">
-        <v>406.8760457417114</v>
+        <v>406.8760457417118</v>
       </c>
       <c r="G14" t="n">
         <v>409.8033385187866</v>
@@ -1768,13 +1768,13 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
-        <v>41.33703994143007</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
         <v>165.5241382922688</v>
@@ -1810,16 +1810,16 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>66.37524671012166</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
         <v>217.4054503272883</v>
       </c>
       <c r="U16" t="n">
-        <v>286.1844743892441</v>
+        <v>134.4525633547297</v>
       </c>
       <c r="V16" t="n">
         <v>252.137643323828</v>
@@ -1828,7 +1828,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X16" t="n">
-        <v>225.7096553890372</v>
+        <v>225.7096553890358</v>
       </c>
       <c r="Y16" t="n">
         <v>218.5846533520948</v>
@@ -1841,7 +1841,7 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>382.7338416634806</v>
+        <v>382.7338416634811</v>
       </c>
       <c r="C17" t="n">
         <v>365.2728917710076</v>
@@ -1898,7 +1898,7 @@
         <v>199.0222304576161</v>
       </c>
       <c r="U17" t="n">
-        <v>250.9057009881293</v>
+        <v>250.9057009881286</v>
       </c>
       <c r="V17" t="n">
         <v>327.7522584701349</v>
@@ -2002,7 +2002,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C19" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
         <v>0</v>
@@ -2014,13 +2014,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H19" t="n">
-        <v>42.71572132711504</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I19" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2062,10 +2062,10 @@
         <v>252.137643323828</v>
       </c>
       <c r="W19" t="n">
-        <v>286.522998336591</v>
+        <v>163.1485391341881</v>
       </c>
       <c r="X19" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y19" t="n">
         <v>218.5846533520948</v>
@@ -2096,7 +2096,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H20" t="n">
-        <v>283.1540821444152</v>
+        <v>283.1540821444137</v>
       </c>
       <c r="I20" t="n">
         <v>0</v>
@@ -2132,7 +2132,7 @@
         <v>83.70251495695528</v>
       </c>
       <c r="T20" t="n">
-        <v>199.0222304576161</v>
+        <v>199.0222304576173</v>
       </c>
       <c r="U20" t="n">
         <v>250.9057009881286</v>
@@ -2242,7 +2242,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
         <v>0</v>
@@ -2254,7 +2254,7 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H22" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
         <v>0</v>
@@ -2284,10 +2284,10 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S22" t="n">
-        <v>44.75138076689305</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T22" t="n">
         <v>217.4054503272883</v>
@@ -2305,7 +2305,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y22" t="n">
-        <v>218.5846533520948</v>
+        <v>7.613741235237332</v>
       </c>
     </row>
     <row r="23">
@@ -2473,7 +2473,7 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C25" t="n">
         <v>167.2468210986278</v>
@@ -2482,19 +2482,19 @@
         <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
-        <v>165.5241382922688</v>
+        <v>61.44013021076765</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2530,7 +2530,7 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U25" t="n">
-        <v>222.8161206669569</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V25" t="n">
         <v>252.137643323828</v>
@@ -2716,16 +2716,16 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
-        <v>108.2950343703271</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H28" t="n">
         <v>140.2947128462239</v>
@@ -2758,16 +2758,16 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>66.37524671012166</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T28" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U28" t="n">
-        <v>286.1844743892441</v>
+        <v>253.2918698186444</v>
       </c>
       <c r="V28" t="n">
         <v>252.137643323828</v>
@@ -2804,7 +2804,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G29" t="n">
-        <v>409.8033385187868</v>
+        <v>409.8033385187866</v>
       </c>
       <c r="H29" t="n">
         <v>283.1540821444137</v>
@@ -2953,16 +2953,16 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>108.2950343703271</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H31" t="n">
         <v>140.2947128462239</v>
@@ -2995,7 +2995,7 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>66.37524671012166</v>
+        <v>0</v>
       </c>
       <c r="S31" t="n">
         <v>181.0262860016446</v>
@@ -3007,10 +3007,10 @@
         <v>286.1844743892441</v>
       </c>
       <c r="V31" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W31" t="n">
-        <v>286.522998336591</v>
+        <v>252.7573487838175</v>
       </c>
       <c r="X31" t="n">
         <v>225.7096553890372</v>
@@ -3026,7 +3026,7 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>382.7338416634806</v>
+        <v>382.733841663482</v>
       </c>
       <c r="C32" t="n">
         <v>365.2728917710076</v>
@@ -3038,13 +3038,13 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F32" t="n">
-        <v>406.8760457417114</v>
+        <v>406.8760457417115</v>
       </c>
       <c r="G32" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8033385187867</v>
       </c>
       <c r="H32" t="n">
-        <v>283.1540821444137</v>
+        <v>283.1540821444138</v>
       </c>
       <c r="I32" t="n">
         <v>0</v>
@@ -3077,13 +3077,13 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>83.70251495695528</v>
+        <v>83.70251495695535</v>
       </c>
       <c r="T32" t="n">
         <v>199.0222304576161</v>
       </c>
       <c r="U32" t="n">
-        <v>250.9057009881286</v>
+        <v>250.9057009881287</v>
       </c>
       <c r="V32" t="n">
         <v>327.7522584701349</v>
@@ -3235,10 +3235,10 @@
         <v>66.37524671012166</v>
       </c>
       <c r="S34" t="n">
-        <v>123.797182079703</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T34" t="n">
-        <v>217.4054503272883</v>
+        <v>160.1763464053464</v>
       </c>
       <c r="U34" t="n">
         <v>286.1844743892441</v>
@@ -3275,7 +3275,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F35" t="n">
-        <v>406.8760457417114</v>
+        <v>406.8760457417118</v>
       </c>
       <c r="G35" t="n">
         <v>409.8033385187866</v>
@@ -3472,7 +3472,7 @@
         <v>66.37524671012166</v>
       </c>
       <c r="S37" t="n">
-        <v>181.0262860016446</v>
+        <v>123.797182079703</v>
       </c>
       <c r="T37" t="n">
         <v>217.4054503272883</v>
@@ -3481,7 +3481,7 @@
         <v>286.1844743892441</v>
       </c>
       <c r="V37" t="n">
-        <v>194.9085394018862</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W37" t="n">
         <v>286.522998336591</v>
@@ -3500,7 +3500,7 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>382.7338416634828</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C38" t="n">
         <v>365.2728917710076</v>
@@ -3560,7 +3560,7 @@
         <v>250.9057009881286</v>
       </c>
       <c r="V38" t="n">
-        <v>327.7522584701349</v>
+        <v>327.7522584701346</v>
       </c>
       <c r="W38" t="n">
         <v>349.240968717413</v>
@@ -3673,7 +3673,7 @@
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>108.295034370327</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H40" t="n">
         <v>140.2947128462239</v>
@@ -3712,7 +3712,7 @@
         <v>181.0262860016446</v>
       </c>
       <c r="T40" t="n">
-        <v>217.4054503272883</v>
+        <v>160.1763464053464</v>
       </c>
       <c r="U40" t="n">
         <v>286.1844743892441</v>
@@ -3901,13 +3901,13 @@
         <v>142.9621736065881</v>
       </c>
       <c r="D43" t="n">
-        <v>124.3308255261727</v>
+        <v>124.3308255261726</v>
       </c>
       <c r="E43" t="n">
         <v>122.1493151545295</v>
       </c>
       <c r="F43" t="n">
-        <v>121.1364005308918</v>
+        <v>121.1364005308915</v>
       </c>
       <c r="G43" t="n">
         <v>141.2394908002291</v>
@@ -3916,7 +3916,7 @@
         <v>116.0100653541842</v>
       </c>
       <c r="I43" t="n">
-        <v>56.98118882652581</v>
+        <v>56.98118882652614</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -4138,7 +4138,7 @@
         <v>142.9621736065881</v>
       </c>
       <c r="D46" t="n">
-        <v>124.3308255261727</v>
+        <v>124.3308255261726</v>
       </c>
       <c r="E46" t="n">
         <v>122.1493151545295</v>
@@ -4150,10 +4150,10 @@
         <v>141.2394908002291</v>
       </c>
       <c r="H46" t="n">
-        <v>116.0100653541842</v>
+        <v>116.0100653541841</v>
       </c>
       <c r="I46" t="n">
-        <v>56.98118882652582</v>
+        <v>56.98118882652581</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4180,7 +4180,7 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>42.09059921808196</v>
+        <v>42.09059921808195</v>
       </c>
       <c r="S46" t="n">
         <v>156.7416385096049</v>
@@ -4304,34 +4304,34 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1046.404739265754</v>
+        <v>1920.300497975549</v>
       </c>
       <c r="C2" t="n">
-        <v>677.4422223253423</v>
+        <v>1551.337981035137</v>
       </c>
       <c r="D2" t="n">
-        <v>319.1765237185918</v>
+        <v>1193.072282428387</v>
       </c>
       <c r="E2" t="n">
-        <v>319.1765237185918</v>
+        <v>807.2840298301426</v>
       </c>
       <c r="F2" t="n">
-        <v>319.1765237185918</v>
+        <v>807.2840298301426</v>
       </c>
       <c r="G2" t="n">
-        <v>319.1765237185918</v>
+        <v>392.2115796751391</v>
       </c>
       <c r="H2" t="n">
-        <v>66.51211643218342</v>
+        <v>94.62797928390628</v>
       </c>
       <c r="I2" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="J2" t="n">
         <v>255.3912473912088</v>
       </c>
       <c r="K2" t="n">
-        <v>589.2106210810553</v>
+        <v>589.2106210810551</v>
       </c>
       <c r="L2" t="n">
         <v>1040.244834329464</v>
@@ -4340,40 +4340,40 @@
         <v>1573.776739001388</v>
       </c>
       <c r="N2" t="n">
-        <v>2120.555556060171</v>
+        <v>2120.55555606017</v>
       </c>
       <c r="O2" t="n">
-        <v>2623.528026939508</v>
+        <v>2623.528026939507</v>
       </c>
       <c r="P2" t="n">
-        <v>3018.302393296686</v>
+        <v>3018.302393296685</v>
       </c>
       <c r="Q2" t="n">
-        <v>3266.588755052368</v>
+        <v>3266.588755052367</v>
       </c>
       <c r="R2" t="n">
-        <v>3325.605821609171</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="S2" t="n">
-        <v>3215.315153136266</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="T2" t="n">
-        <v>3009.337405520488</v>
+        <v>3119.628073993392</v>
       </c>
       <c r="U2" t="n">
-        <v>2755.806928794324</v>
+        <v>2990.731880653356</v>
       </c>
       <c r="V2" t="n">
-        <v>2549.378324836882</v>
+        <v>2659.668993309785</v>
       </c>
       <c r="W2" t="n">
-        <v>2196.609669566767</v>
+        <v>2306.900338039671</v>
       </c>
       <c r="X2" t="n">
-        <v>1823.143911305687</v>
+        <v>2306.900338039671</v>
       </c>
       <c r="Y2" t="n">
-        <v>1433.004579329876</v>
+        <v>2306.900338039671</v>
       </c>
     </row>
     <row r="3">
@@ -4383,76 +4383,76 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>941.5438544811087</v>
+        <v>1702.096133556937</v>
       </c>
       <c r="C3" t="n">
-        <v>767.0908251999817</v>
+        <v>1527.64310427581</v>
       </c>
       <c r="D3" t="n">
-        <v>618.1564155387305</v>
+        <v>1378.708694614559</v>
       </c>
       <c r="E3" t="n">
-        <v>458.9189605332749</v>
+        <v>1219.471239609103</v>
       </c>
       <c r="F3" t="n">
-        <v>312.3844025601599</v>
+        <v>1072.936681635988</v>
       </c>
       <c r="G3" t="n">
-        <v>176.0213023927779</v>
+        <v>936.5735814686067</v>
       </c>
       <c r="H3" t="n">
-        <v>85.51940803064545</v>
+        <v>846.0716871064742</v>
       </c>
       <c r="I3" t="n">
-        <v>66.51211643218342</v>
+        <v>827.0643955080122</v>
       </c>
       <c r="J3" t="n">
-        <v>160.1893859228007</v>
+        <v>920.7416649986294</v>
       </c>
       <c r="K3" t="n">
-        <v>398.4535849031479</v>
+        <v>1159.005863978977</v>
       </c>
       <c r="L3" t="n">
-        <v>765.1517452158132</v>
+        <v>1525.704024291642</v>
       </c>
       <c r="M3" t="n">
-        <v>1212.428070438129</v>
+        <v>1972.980349513958</v>
       </c>
       <c r="N3" t="n">
-        <v>1685.951113992583</v>
+        <v>2446.503393068412</v>
       </c>
       <c r="O3" t="n">
-        <v>2096.912393410638</v>
+        <v>2857.464672486467</v>
       </c>
       <c r="P3" t="n">
-        <v>2407.411984886741</v>
+        <v>3167.96426396257</v>
       </c>
       <c r="Q3" t="n">
-        <v>2565.053542533341</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="R3" t="n">
-        <v>2564.909189125856</v>
+        <v>3325.461468201685</v>
       </c>
       <c r="S3" t="n">
-        <v>2435.471302619336</v>
+        <v>3196.023581695165</v>
       </c>
       <c r="T3" t="n">
-        <v>2242.828302297192</v>
+        <v>3003.380581373021</v>
       </c>
       <c r="U3" t="n">
-        <v>2014.760455431608</v>
+        <v>2775.312734507436</v>
       </c>
       <c r="V3" t="n">
-        <v>1779.608347199865</v>
+        <v>2540.160626275694</v>
       </c>
       <c r="W3" t="n">
-        <v>1525.370990471663</v>
+        <v>2285.923269547492</v>
       </c>
       <c r="X3" t="n">
-        <v>1317.519490266131</v>
+        <v>2078.071769341959</v>
       </c>
       <c r="Y3" t="n">
-        <v>1109.759191501177</v>
+        <v>1870.311470577005</v>
       </c>
     </row>
     <row r="4">
@@ -4462,31 +4462,31 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>163.8377936138381</v>
+        <v>754.9746608886195</v>
       </c>
       <c r="C4" t="n">
-        <v>163.8377936138381</v>
+        <v>754.9746608886195</v>
       </c>
       <c r="D4" t="n">
-        <v>163.8377936138381</v>
+        <v>604.8580214762837</v>
       </c>
       <c r="E4" t="n">
-        <v>163.8377936138381</v>
+        <v>456.9449278938906</v>
       </c>
       <c r="F4" t="n">
-        <v>163.8377936138381</v>
+        <v>310.0549803959802</v>
       </c>
       <c r="G4" t="n">
-        <v>163.8377936138381</v>
+        <v>310.0549803959802</v>
       </c>
       <c r="H4" t="n">
-        <v>163.8377936138381</v>
+        <v>163.837793613838</v>
       </c>
       <c r="I4" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="J4" t="n">
-        <v>111.634748879119</v>
+        <v>111.6347488791189</v>
       </c>
       <c r="K4" t="n">
         <v>315.6219318279954</v>
@@ -4510,28 +4510,28 @@
         <v>1927.294548088493</v>
       </c>
       <c r="R4" t="n">
-        <v>1837.464090846021</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="S4" t="n">
-        <v>1645.778206672847</v>
+        <v>1783.250864128428</v>
       </c>
       <c r="T4" t="n">
-        <v>1424.011591242373</v>
+        <v>1561.484248697954</v>
       </c>
       <c r="U4" t="n">
-        <v>1156.721581898233</v>
+        <v>1272.381381823597</v>
       </c>
       <c r="V4" t="n">
-        <v>902.0370936923462</v>
+        <v>1272.381381823597</v>
       </c>
       <c r="W4" t="n">
-        <v>612.6199236553855</v>
+        <v>982.9642117866368</v>
       </c>
       <c r="X4" t="n">
-        <v>384.6303727573681</v>
+        <v>754.9746608886195</v>
       </c>
       <c r="Y4" t="n">
-        <v>163.8377936138381</v>
+        <v>754.9746608886195</v>
       </c>
     </row>
     <row r="5">
@@ -4541,13 +4541,13 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1308.370295943748</v>
+        <v>1698.509627919558</v>
       </c>
       <c r="C5" t="n">
-        <v>1308.370295943748</v>
+        <v>1698.509627919558</v>
       </c>
       <c r="D5" t="n">
-        <v>1308.370295943748</v>
+        <v>1340.243929312808</v>
       </c>
       <c r="E5" t="n">
         <v>1232.150970528558</v>
@@ -4562,55 +4562,55 @@
         <v>108.5090151927147</v>
       </c>
       <c r="I5" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="J5" t="n">
-        <v>255.3912473912096</v>
+        <v>255.3912473912087</v>
       </c>
       <c r="K5" t="n">
-        <v>589.2106210810564</v>
+        <v>589.210621081055</v>
       </c>
       <c r="L5" t="n">
-        <v>1040.244834329465</v>
+        <v>1040.244834329463</v>
       </c>
       <c r="M5" t="n">
-        <v>1573.776739001389</v>
+        <v>1573.776739001388</v>
       </c>
       <c r="N5" t="n">
-        <v>2120.555556060172</v>
+        <v>2120.55555606017</v>
       </c>
       <c r="O5" t="n">
-        <v>2623.528026939509</v>
+        <v>2623.528026939506</v>
       </c>
       <c r="P5" t="n">
-        <v>3018.302393296687</v>
+        <v>3018.302393296685</v>
       </c>
       <c r="Q5" t="n">
-        <v>3266.588755052369</v>
+        <v>3266.588755052367</v>
       </c>
       <c r="R5" t="n">
-        <v>3325.605821609171</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="S5" t="n">
-        <v>3215.315153136266</v>
+        <v>3215.315153136265</v>
       </c>
       <c r="T5" t="n">
-        <v>3009.337405520489</v>
+        <v>3009.337405520487</v>
       </c>
       <c r="U5" t="n">
-        <v>2755.806928794325</v>
+        <v>2755.806928794323</v>
       </c>
       <c r="V5" t="n">
-        <v>2424.744041450754</v>
+        <v>2424.744041450752</v>
       </c>
       <c r="W5" t="n">
-        <v>2071.97538618064</v>
+        <v>2071.975386180638</v>
       </c>
       <c r="X5" t="n">
-        <v>1698.50962791956</v>
+        <v>1698.509627919558</v>
       </c>
       <c r="Y5" t="n">
-        <v>1308.370295943748</v>
+        <v>1698.509627919558</v>
       </c>
     </row>
     <row r="6">
@@ -4620,37 +4620,37 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>941.5438544811082</v>
+        <v>941.5438544811087</v>
       </c>
       <c r="C6" t="n">
-        <v>767.0908251999812</v>
+        <v>767.0908251999817</v>
       </c>
       <c r="D6" t="n">
-        <v>618.15641553873</v>
+        <v>618.1564155387305</v>
       </c>
       <c r="E6" t="n">
-        <v>458.9189605332745</v>
+        <v>458.9189605332749</v>
       </c>
       <c r="F6" t="n">
-        <v>312.3844025601595</v>
+        <v>312.3844025601599</v>
       </c>
       <c r="G6" t="n">
-        <v>176.0213023927781</v>
+        <v>176.021302392778</v>
       </c>
       <c r="H6" t="n">
-        <v>85.51940803064576</v>
+        <v>85.51940803064545</v>
       </c>
       <c r="I6" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="J6" t="n">
         <v>160.1893859228007</v>
       </c>
       <c r="K6" t="n">
-        <v>398.4535849031479</v>
+        <v>398.4535849031478</v>
       </c>
       <c r="L6" t="n">
-        <v>765.1517452158131</v>
+        <v>765.151745215813</v>
       </c>
       <c r="M6" t="n">
         <v>1212.428070438129</v>
@@ -4662,10 +4662,10 @@
         <v>2096.912393410638</v>
       </c>
       <c r="P6" t="n">
-        <v>2407.411984886741</v>
+        <v>2407.41198488674</v>
       </c>
       <c r="Q6" t="n">
-        <v>2565.053542533341</v>
+        <v>2565.05354253334</v>
       </c>
       <c r="R6" t="n">
         <v>2564.909189125856</v>
@@ -4677,7 +4677,7 @@
         <v>2242.828302297192</v>
       </c>
       <c r="U6" t="n">
-        <v>2014.760455431607</v>
+        <v>2014.760455431608</v>
       </c>
       <c r="V6" t="n">
         <v>1779.608347199865</v>
@@ -4686,10 +4686,10 @@
         <v>1525.370990471663</v>
       </c>
       <c r="X6" t="n">
-        <v>1317.51949026613</v>
+        <v>1317.519490266131</v>
       </c>
       <c r="Y6" t="n">
-        <v>1109.759191501176</v>
+        <v>1109.759191501177</v>
       </c>
     </row>
     <row r="7">
@@ -4699,40 +4699,40 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>994.2880032601528</v>
+        <v>752.7622949738575</v>
       </c>
       <c r="C7" t="n">
-        <v>825.3518203322459</v>
+        <v>583.8261120459506</v>
       </c>
       <c r="D7" t="n">
-        <v>675.2351809199101</v>
+        <v>433.7094726336148</v>
       </c>
       <c r="E7" t="n">
-        <v>527.322087337517</v>
+        <v>285.7963790512217</v>
       </c>
       <c r="F7" t="n">
-        <v>380.4321398396067</v>
+        <v>285.7963790512217</v>
       </c>
       <c r="G7" t="n">
-        <v>212.7293032143257</v>
+        <v>163.8377936138381</v>
       </c>
       <c r="H7" t="n">
-        <v>66.51211643218343</v>
+        <v>163.8377936138381</v>
       </c>
       <c r="I7" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="J7" t="n">
-        <v>111.634748879119</v>
+        <v>111.6347488791189</v>
       </c>
       <c r="K7" t="n">
-        <v>315.6219318279954</v>
+        <v>315.6219318279952</v>
       </c>
       <c r="L7" t="n">
         <v>632.1817302764914</v>
       </c>
       <c r="M7" t="n">
-        <v>976.3387758760405</v>
+        <v>976.3387758760404</v>
       </c>
       <c r="N7" t="n">
         <v>1317.747152581905</v>
@@ -4744,31 +4744,31 @@
         <v>1849.684251935978</v>
       </c>
       <c r="Q7" t="n">
-        <v>1927.294548088493</v>
+        <v>1927.294548088492</v>
       </c>
       <c r="R7" t="n">
-        <v>1927.294548088493</v>
+        <v>1927.294548088492</v>
       </c>
       <c r="S7" t="n">
-        <v>1735.608663915319</v>
+        <v>1927.294548088492</v>
       </c>
       <c r="T7" t="n">
-        <v>1735.608663915319</v>
+        <v>1927.294548088492</v>
       </c>
       <c r="U7" t="n">
-        <v>1446.505797040963</v>
+        <v>1927.294548088492</v>
       </c>
       <c r="V7" t="n">
-        <v>1446.505797040963</v>
+        <v>1672.610059882605</v>
       </c>
       <c r="W7" t="n">
-        <v>1446.505797040963</v>
+        <v>1383.192889845645</v>
       </c>
       <c r="X7" t="n">
-        <v>1396.729047233923</v>
+        <v>1155.203338947627</v>
       </c>
       <c r="Y7" t="n">
-        <v>1175.936468090393</v>
+        <v>934.4107598040972</v>
       </c>
     </row>
     <row r="8">
@@ -4778,76 +4778,76 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>2047.583838282732</v>
+        <v>1501.213961756483</v>
       </c>
       <c r="C8" t="n">
-        <v>1678.62132134232</v>
+        <v>1132.251444816071</v>
       </c>
       <c r="D8" t="n">
-        <v>1320.35562273557</v>
+        <v>1132.251444816071</v>
       </c>
       <c r="E8" t="n">
-        <v>934.5673701373257</v>
+        <v>746.4631922178269</v>
       </c>
       <c r="F8" t="n">
-        <v>523.5814653477182</v>
+        <v>739.5176914686234</v>
       </c>
       <c r="G8" t="n">
-        <v>108.5090151927147</v>
+        <v>324.4452413136199</v>
       </c>
       <c r="H8" t="n">
-        <v>108.5090151927147</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="I8" t="n">
-        <v>66.51211643218345</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J8" t="n">
-        <v>255.3912473912087</v>
+        <v>255.3912473912083</v>
       </c>
       <c r="K8" t="n">
-        <v>589.2106210810553</v>
+        <v>589.2106210810543</v>
       </c>
       <c r="L8" t="n">
-        <v>1040.244834329464</v>
+        <v>1040.244834329463</v>
       </c>
       <c r="M8" t="n">
-        <v>1573.776739001389</v>
+        <v>1573.776739001387</v>
       </c>
       <c r="N8" t="n">
-        <v>2120.555556060172</v>
+        <v>2120.555556060169</v>
       </c>
       <c r="O8" t="n">
-        <v>2623.528026939509</v>
+        <v>2623.528026939507</v>
       </c>
       <c r="P8" t="n">
-        <v>3018.302393296688</v>
+        <v>3018.302393296686</v>
       </c>
       <c r="Q8" t="n">
-        <v>3266.58875505237</v>
+        <v>3266.588755052368</v>
       </c>
       <c r="R8" t="n">
-        <v>3325.605821609172</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="S8" t="n">
-        <v>3325.605821609172</v>
+        <v>3215.315153136265</v>
       </c>
       <c r="T8" t="n">
-        <v>3325.605821609172</v>
+        <v>3215.315153136265</v>
       </c>
       <c r="U8" t="n">
-        <v>3325.605821609172</v>
+        <v>2961.784676410101</v>
       </c>
       <c r="V8" t="n">
-        <v>3325.605821609172</v>
+        <v>2630.721789066531</v>
       </c>
       <c r="W8" t="n">
-        <v>2972.837166339058</v>
+        <v>2277.953133796416</v>
       </c>
       <c r="X8" t="n">
-        <v>2599.371408077978</v>
+        <v>2277.953133796416</v>
       </c>
       <c r="Y8" t="n">
-        <v>2209.232076102167</v>
+        <v>1887.813801820605</v>
       </c>
     </row>
     <row r="9">
@@ -4857,34 +4857,34 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>941.5438544811091</v>
+        <v>941.5438544811087</v>
       </c>
       <c r="C9" t="n">
-        <v>767.0908251999821</v>
+        <v>767.0908251999817</v>
       </c>
       <c r="D9" t="n">
-        <v>618.1564155387309</v>
+        <v>618.1564155387305</v>
       </c>
       <c r="E9" t="n">
-        <v>458.9189605332754</v>
+        <v>458.9189605332749</v>
       </c>
       <c r="F9" t="n">
-        <v>312.3844025601604</v>
+        <v>312.3844025601599</v>
       </c>
       <c r="G9" t="n">
-        <v>176.0213023927784</v>
+        <v>176.021302392778</v>
       </c>
       <c r="H9" t="n">
-        <v>85.51940803064586</v>
+        <v>85.51940803064548</v>
       </c>
       <c r="I9" t="n">
-        <v>66.51211643218345</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J9" t="n">
         <v>160.1893859228007</v>
       </c>
       <c r="K9" t="n">
-        <v>398.4535849031479</v>
+        <v>398.4535849031478</v>
       </c>
       <c r="L9" t="n">
         <v>765.1517452158134</v>
@@ -4896,31 +4896,31 @@
         <v>1685.951113992584</v>
       </c>
       <c r="O9" t="n">
-        <v>2096.912393410639</v>
+        <v>2096.912393410638</v>
       </c>
       <c r="P9" t="n">
-        <v>2407.411984886742</v>
+        <v>2407.411984886741</v>
       </c>
       <c r="Q9" t="n">
-        <v>2565.053542533342</v>
+        <v>2565.053542533341</v>
       </c>
       <c r="R9" t="n">
-        <v>2564.909189125857</v>
+        <v>2564.909189125856</v>
       </c>
       <c r="S9" t="n">
-        <v>2435.471302619337</v>
+        <v>2435.471302619336</v>
       </c>
       <c r="T9" t="n">
-        <v>2242.828302297193</v>
+        <v>2242.828302297192</v>
       </c>
       <c r="U9" t="n">
         <v>2014.760455431608</v>
       </c>
       <c r="V9" t="n">
-        <v>1779.608347199866</v>
+        <v>1779.608347199865</v>
       </c>
       <c r="W9" t="n">
-        <v>1525.370990471664</v>
+        <v>1525.370990471663</v>
       </c>
       <c r="X9" t="n">
         <v>1317.519490266131</v>
@@ -4936,43 +4936,43 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>996.7496307124718</v>
+        <v>231.8553933260934</v>
       </c>
       <c r="C10" t="n">
-        <v>827.8134477845649</v>
+        <v>231.8553933260934</v>
       </c>
       <c r="D10" t="n">
-        <v>772.5608581015648</v>
+        <v>231.8553933260934</v>
       </c>
       <c r="E10" t="n">
-        <v>624.6477645191717</v>
+        <v>231.8553933260934</v>
       </c>
       <c r="F10" t="n">
-        <v>477.7578170212613</v>
+        <v>231.8553933260934</v>
       </c>
       <c r="G10" t="n">
-        <v>310.0549803959803</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="H10" t="n">
-        <v>163.8377936138381</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="I10" t="n">
-        <v>66.51211643218345</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J10" t="n">
-        <v>111.634748879119</v>
+        <v>111.6347488791189</v>
       </c>
       <c r="K10" t="n">
-        <v>315.6219318279955</v>
+        <v>315.6219318279952</v>
       </c>
       <c r="L10" t="n">
-        <v>632.1817302764916</v>
+        <v>632.1817302764914</v>
       </c>
       <c r="M10" t="n">
-        <v>976.3387758760407</v>
+        <v>976.3387758760404</v>
       </c>
       <c r="N10" t="n">
-        <v>1317.747152581906</v>
+        <v>1317.747152581905</v>
       </c>
       <c r="O10" t="n">
         <v>1617.076751502319</v>
@@ -4981,31 +4981,31 @@
         <v>1849.684251935978</v>
       </c>
       <c r="Q10" t="n">
-        <v>1927.294548088493</v>
+        <v>1927.294548088492</v>
       </c>
       <c r="R10" t="n">
-        <v>1927.294548088493</v>
+        <v>1927.294548088492</v>
       </c>
       <c r="S10" t="n">
-        <v>1735.60866391532</v>
+        <v>1735.608663915319</v>
       </c>
       <c r="T10" t="n">
-        <v>1513.842048484846</v>
+        <v>1513.842048484845</v>
       </c>
       <c r="U10" t="n">
-        <v>1224.739181610489</v>
+        <v>1224.739181610488</v>
       </c>
       <c r="V10" t="n">
-        <v>1224.739181610489</v>
+        <v>970.0546934046014</v>
       </c>
       <c r="W10" t="n">
-        <v>1224.739181610489</v>
+        <v>680.6375233676408</v>
       </c>
       <c r="X10" t="n">
-        <v>996.7496307124718</v>
+        <v>452.6479724696235</v>
       </c>
       <c r="Y10" t="n">
-        <v>996.7496307124718</v>
+        <v>231.8553933260934</v>
       </c>
     </row>
     <row r="11">
@@ -5030,58 +5030,58 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G11" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H11" t="n">
-        <v>93.81666304797189</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I11" t="n">
-        <v>95.34095638192605</v>
+        <v>95.34095638192503</v>
       </c>
       <c r="J11" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111703</v>
       </c>
       <c r="K11" t="n">
-        <v>852.852361107581</v>
+        <v>852.8523611075798</v>
       </c>
       <c r="L11" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M11" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N11" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O11" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P11" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q11" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R11" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S11" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T11" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U11" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V11" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W11" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X11" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y11" t="n">
         <v>2704.375866615997</v>
@@ -5103,7 +5103,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E12" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F12" t="n">
         <v>314.2396613568978</v>
@@ -5112,10 +5112,10 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H12" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I12" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J12" t="n">
         <v>243.4633055756266</v>
@@ -5124,19 +5124,19 @@
         <v>577.3880777468471</v>
       </c>
       <c r="L12" t="n">
-        <v>1072.713683962606</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="M12" t="n">
-        <v>1670.092171589158</v>
+        <v>1174.766565373399</v>
       </c>
       <c r="N12" t="n">
-        <v>2001.151557821488</v>
+        <v>1802.364528928006</v>
       </c>
       <c r="O12" t="n">
-        <v>2553.061288060775</v>
+        <v>2354.274259167293</v>
       </c>
       <c r="P12" t="n">
-        <v>2553.061288060775</v>
+        <v>2354.274259167293</v>
       </c>
       <c r="Q12" t="n">
         <v>2553.061288060775</v>
@@ -5173,28 +5173,28 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>931.4710609784063</v>
+        <v>1016.58045691144</v>
       </c>
       <c r="C13" t="n">
-        <v>762.5348780504994</v>
+        <v>847.644273983533</v>
       </c>
       <c r="D13" t="n">
-        <v>612.4182386381636</v>
+        <v>697.5276345711973</v>
       </c>
       <c r="E13" t="n">
-        <v>464.5051450557705</v>
+        <v>549.6145409888042</v>
       </c>
       <c r="F13" t="n">
-        <v>317.6151975578601</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="G13" t="n">
-        <v>317.6151975578601</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H13" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I13" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J13" t="n">
         <v>174.0526814782958</v>
@@ -5230,19 +5230,19 @@
         <v>2227.361618603202</v>
       </c>
       <c r="U13" t="n">
-        <v>2106.00331409304</v>
+        <v>1938.2863919474</v>
       </c>
       <c r="V13" t="n">
-        <v>1851.318825887153</v>
+        <v>1936.428221820188</v>
       </c>
       <c r="W13" t="n">
-        <v>1561.901655850192</v>
+        <v>1647.011051783227</v>
       </c>
       <c r="X13" t="n">
-        <v>1333.912104952175</v>
+        <v>1419.02150088521</v>
       </c>
       <c r="Y13" t="n">
-        <v>1113.119525808645</v>
+        <v>1198.22892174168</v>
       </c>
     </row>
     <row r="14">
@@ -5255,7 +5255,7 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C14" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611464</v>
       </c>
       <c r="D14" t="n">
         <v>1590.547811004713</v>
@@ -5267,58 +5267,58 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G14" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H14" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I14" t="n">
-        <v>95.34095638192571</v>
+        <v>95.34095638192602</v>
       </c>
       <c r="J14" t="n">
-        <v>378.1925803111714</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K14" t="n">
-        <v>852.8523611075798</v>
+        <v>852.852361107581</v>
       </c>
       <c r="L14" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M14" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N14" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O14" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P14" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q14" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R14" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S14" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T14" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U14" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466574</v>
       </c>
       <c r="V14" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W14" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X14" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y14" t="n">
         <v>2704.375866615997</v>
@@ -5340,7 +5340,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E15" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F15" t="n">
         <v>314.2396613568978</v>
@@ -5349,28 +5349,28 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H15" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I15" t="n">
-        <v>95.58405025273905</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J15" t="n">
-        <v>245.2306927803938</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K15" t="n">
-        <v>579.1554649516144</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L15" t="n">
-        <v>1074.481071167373</v>
+        <v>949.9304447718132</v>
       </c>
       <c r="M15" t="n">
-        <v>1671.859558793925</v>
+        <v>949.9304447718132</v>
       </c>
       <c r="N15" t="n">
-        <v>2299.457522348532</v>
+        <v>1577.52840832642</v>
       </c>
       <c r="O15" t="n">
-        <v>2553.061288060775</v>
+        <v>2129.438138565707</v>
       </c>
       <c r="P15" t="n">
         <v>2553.061288060775</v>
@@ -5410,16 +5410,16 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>695.5020655703114</v>
+        <v>1098.667160263526</v>
       </c>
       <c r="C16" t="n">
-        <v>526.5658826424045</v>
+        <v>929.7309773356194</v>
       </c>
       <c r="D16" t="n">
-        <v>526.5658826424045</v>
+        <v>779.6143379232836</v>
       </c>
       <c r="E16" t="n">
-        <v>484.8112968429802</v>
+        <v>631.7012443408905</v>
       </c>
       <c r="F16" t="n">
         <v>484.8112968429802</v>
@@ -5428,10 +5428,10 @@
         <v>317.6151975578601</v>
       </c>
       <c r="H16" t="n">
-        <v>175.9033664000582</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I16" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J16" t="n">
         <v>174.0526814782958</v>
@@ -5458,28 +5458,28 @@
         <v>2446.963083580261</v>
       </c>
       <c r="R16" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="S16" t="n">
-        <v>2197.062545487568</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="T16" t="n">
-        <v>1977.461080510509</v>
+        <v>2227.361618603202</v>
       </c>
       <c r="U16" t="n">
-        <v>1688.385853854707</v>
+        <v>2091.55094854792</v>
       </c>
       <c r="V16" t="n">
-        <v>1433.70136564882</v>
+        <v>1836.866460342033</v>
       </c>
       <c r="W16" t="n">
-        <v>1144.284195611859</v>
+        <v>1547.449290305072</v>
       </c>
       <c r="X16" t="n">
-        <v>916.2946447138415</v>
+        <v>1319.459739407056</v>
       </c>
       <c r="Y16" t="n">
-        <v>695.5020655703114</v>
+        <v>1098.667160263526</v>
       </c>
     </row>
     <row r="17">
@@ -5492,7 +5492,7 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C17" t="n">
-        <v>1948.813509611464</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D17" t="n">
         <v>1590.547811004713</v>
@@ -5501,46 +5501,46 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F17" t="n">
-        <v>793.7736536168612</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G17" t="n">
-        <v>379.8308874362687</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H17" t="n">
-        <v>93.81666304797191</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I17" t="n">
-        <v>95.34095638192605</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J17" t="n">
-        <v>378.1925803111726</v>
+        <v>378.1925803111716</v>
       </c>
       <c r="K17" t="n">
-        <v>852.8523611075816</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L17" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M17" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N17" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O17" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P17" t="n">
-        <v>4194.413870694709</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q17" t="n">
-        <v>4562.265728852257</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R17" t="n">
-        <v>4690.833152398595</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S17" t="n">
-        <v>4606.28515749258</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T17" t="n">
         <v>4405.252601474785</v>
@@ -5586,34 +5586,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H18" t="n">
-        <v>93.81666304797191</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I18" t="n">
-        <v>93.81666304797191</v>
+        <v>95.58405025273906</v>
       </c>
       <c r="J18" t="n">
-        <v>93.81666304797191</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K18" t="n">
-        <v>93.81666304797191</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L18" t="n">
-        <v>93.81666304797191</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M18" t="n">
-        <v>680.0291294438171</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N18" t="n">
-        <v>1307.627092998424</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O18" t="n">
-        <v>1859.536823237711</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P18" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q18" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R18" t="n">
         <v>2553.061288060775</v>
@@ -5647,28 +5647,28 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>513.8536007400739</v>
+        <v>866.4638174991042</v>
       </c>
       <c r="C19" t="n">
-        <v>513.8536007400739</v>
+        <v>697.5276345711973</v>
       </c>
       <c r="D19" t="n">
-        <v>513.8536007400739</v>
+        <v>697.5276345711973</v>
       </c>
       <c r="E19" t="n">
-        <v>365.9405071576808</v>
+        <v>549.6145409888042</v>
       </c>
       <c r="F19" t="n">
-        <v>219.0505596597705</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="G19" t="n">
-        <v>219.0505596597705</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H19" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I19" t="n">
-        <v>93.81666304797191</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J19" t="n">
         <v>174.0526814782958</v>
@@ -5677,46 +5677,46 @@
         <v>435.7419440038345</v>
       </c>
       <c r="L19" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797765</v>
       </c>
       <c r="M19" t="n">
-        <v>1248.150240910809</v>
+        <v>1248.150240910811</v>
       </c>
       <c r="N19" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570819</v>
       </c>
       <c r="O19" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279804</v>
       </c>
       <c r="P19" t="n">
-        <v>2327.764848853364</v>
+        <v>2327.764848853363</v>
       </c>
       <c r="Q19" t="n">
         <v>2446.963083580263</v>
       </c>
       <c r="R19" t="n">
-        <v>2379.917379832666</v>
+        <v>2379.917379832665</v>
       </c>
       <c r="S19" t="n">
-        <v>2197.06254548757</v>
+        <v>2197.062545487569</v>
       </c>
       <c r="T19" t="n">
         <v>1977.461080510511</v>
       </c>
       <c r="U19" t="n">
-        <v>1688.385853854709</v>
+        <v>1688.385853854708</v>
       </c>
       <c r="V19" t="n">
-        <v>1433.701365648822</v>
+        <v>1433.701365648821</v>
       </c>
       <c r="W19" t="n">
-        <v>1144.284195611861</v>
+        <v>1268.904861472874</v>
       </c>
       <c r="X19" t="n">
-        <v>916.2946447138438</v>
+        <v>1268.904861472874</v>
       </c>
       <c r="Y19" t="n">
-        <v>695.5020655703137</v>
+        <v>1048.112282329344</v>
       </c>
     </row>
     <row r="20">
@@ -5726,76 +5726,76 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>2317.776026551876</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C20" t="n">
-        <v>1948.813509611465</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D20" t="n">
-        <v>1590.547811004715</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E20" t="n">
-        <v>1204.759558406471</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F20" t="n">
-        <v>793.7736536168629</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G20" t="n">
-        <v>379.8308874362701</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H20" t="n">
-        <v>93.81666304797191</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I20" t="n">
-        <v>95.34095638192603</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J20" t="n">
-        <v>378.1925803111726</v>
+        <v>378.1925803111716</v>
       </c>
       <c r="K20" t="n">
-        <v>852.8523611075816</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L20" t="n">
-        <v>1478.611553332389</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M20" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N20" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O20" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P20" t="n">
-        <v>4194.413870694709</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q20" t="n">
-        <v>4562.265728852257</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R20" t="n">
-        <v>4690.833152398595</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S20" t="n">
-        <v>4606.28515749258</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T20" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U20" t="n">
-        <v>4151.812499466575</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V20" t="n">
-        <v>3820.749612123004</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W20" t="n">
-        <v>3467.98095685289</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X20" t="n">
-        <v>3094.51519859181</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y20" t="n">
-        <v>2704.375866615998</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="21">
@@ -5823,34 +5823,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H21" t="n">
-        <v>93.81666304797191</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I21" t="n">
-        <v>93.81666304797191</v>
+        <v>95.58405025273906</v>
       </c>
       <c r="J21" t="n">
-        <v>93.81666304797191</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K21" t="n">
-        <v>93.81666304797191</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L21" t="n">
-        <v>93.81666304797191</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M21" t="n">
-        <v>680.0291294438171</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N21" t="n">
-        <v>1307.627092998424</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O21" t="n">
-        <v>1859.536823237711</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P21" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q21" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R21" t="n">
         <v>2553.061288060775</v>
@@ -5884,76 +5884,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>718.5507239167111</v>
+        <v>726.955532171245</v>
       </c>
       <c r="C22" t="n">
-        <v>549.6145409888043</v>
+        <v>558.0193492433381</v>
       </c>
       <c r="D22" t="n">
-        <v>549.6145409888043</v>
+        <v>407.9027098310023</v>
       </c>
       <c r="E22" t="n">
-        <v>549.6145409888043</v>
+        <v>407.9027098310023</v>
       </c>
       <c r="F22" t="n">
-        <v>402.7245934908939</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="G22" t="n">
-        <v>235.5284942057738</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="H22" t="n">
-        <v>93.81666304797191</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I22" t="n">
-        <v>93.81666304797191</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J22" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782999</v>
       </c>
       <c r="K22" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038386</v>
       </c>
       <c r="L22" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797788</v>
       </c>
       <c r="M22" t="n">
-        <v>1248.150240910809</v>
+        <v>1248.150240910813</v>
       </c>
       <c r="N22" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570822</v>
       </c>
       <c r="O22" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279807</v>
       </c>
       <c r="P22" t="n">
-        <v>2327.764848853361</v>
+        <v>2327.764848853365</v>
       </c>
       <c r="Q22" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.963083580265</v>
       </c>
       <c r="R22" t="n">
-        <v>2446.963083580261</v>
+        <v>2379.917379832667</v>
       </c>
       <c r="S22" t="n">
-        <v>2401.759668664207</v>
+        <v>2197.062545487572</v>
       </c>
       <c r="T22" t="n">
-        <v>2182.158203687148</v>
+        <v>1977.461080510513</v>
       </c>
       <c r="U22" t="n">
-        <v>1893.082977031346</v>
+        <v>1688.385853854711</v>
       </c>
       <c r="V22" t="n">
-        <v>1638.398488825459</v>
+        <v>1433.701365648824</v>
       </c>
       <c r="W22" t="n">
-        <v>1348.981318788498</v>
+        <v>1144.284195611863</v>
       </c>
       <c r="X22" t="n">
-        <v>1120.991767890481</v>
+        <v>916.2946447138456</v>
       </c>
       <c r="Y22" t="n">
-        <v>900.1991887469509</v>
+        <v>908.6039970014847</v>
       </c>
     </row>
     <row r="23">
@@ -5966,22 +5966,22 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C23" t="n">
-        <v>1948.813509611464</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D23" t="n">
-        <v>1590.547811004714</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E23" t="n">
-        <v>1204.75955840647</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F23" t="n">
-        <v>793.773653616862</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G23" t="n">
-        <v>379.8308874362687</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H23" t="n">
-        <v>93.81666304797191</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I23" t="n">
         <v>95.34095638192548</v>
@@ -6005,31 +6005,31 @@
         <v>3640.42229106801</v>
       </c>
       <c r="P23" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q23" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R23" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S23" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T23" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U23" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V23" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W23" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X23" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y23" t="n">
         <v>2704.375866615997</v>
@@ -6051,7 +6051,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E24" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F24" t="n">
         <v>314.2396613568978</v>
@@ -6060,34 +6060,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H24" t="n">
-        <v>93.81666304797191</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I24" t="n">
-        <v>93.81666304797191</v>
+        <v>95.58405025273905</v>
       </c>
       <c r="J24" t="n">
-        <v>93.81666304797191</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K24" t="n">
-        <v>93.81666304797191</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L24" t="n">
-        <v>93.81666304797191</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M24" t="n">
-        <v>680.0291294438171</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N24" t="n">
-        <v>1307.627092998424</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O24" t="n">
-        <v>1859.536823237711</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P24" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q24" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R24" t="n">
         <v>2553.061288060775</v>
@@ -6121,28 +6121,28 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>577.862038843392</v>
+        <v>695.5020655703114</v>
       </c>
       <c r="C25" t="n">
-        <v>408.9258559154851</v>
+        <v>526.5658826424045</v>
       </c>
       <c r="D25" t="n">
-        <v>408.9258559154851</v>
+        <v>526.5658826424045</v>
       </c>
       <c r="E25" t="n">
-        <v>261.012762333092</v>
+        <v>526.5658826424045</v>
       </c>
       <c r="F25" t="n">
-        <v>261.012762333092</v>
+        <v>379.6759351444941</v>
       </c>
       <c r="G25" t="n">
-        <v>93.81666304797191</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="H25" t="n">
-        <v>93.81666304797191</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="I25" t="n">
-        <v>93.81666304797191</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J25" t="n">
         <v>174.0526814782958</v>
@@ -6178,19 +6178,19 @@
         <v>1977.461080510509</v>
       </c>
       <c r="U25" t="n">
-        <v>1752.394291958027</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V25" t="n">
-        <v>1497.70980375214</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W25" t="n">
-        <v>1208.292633715179</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X25" t="n">
-        <v>980.3030828171619</v>
+        <v>916.2946447138415</v>
       </c>
       <c r="Y25" t="n">
-        <v>759.5105036736318</v>
+        <v>695.5020655703114</v>
       </c>
     </row>
     <row r="26">
@@ -6200,52 +6200,52 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C26" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D26" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E26" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F26" t="n">
-        <v>793.7736536168609</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G26" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H26" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I26" t="n">
-        <v>95.34095638192451</v>
+        <v>95.34095638192598</v>
       </c>
       <c r="J26" t="n">
-        <v>378.1925803111701</v>
+        <v>378.1925803111716</v>
       </c>
       <c r="K26" t="n">
-        <v>852.8523611075794</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L26" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M26" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N26" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O26" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P26" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q26" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R26" t="n">
         <v>4690.833152398593</v>
@@ -6257,19 +6257,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U26" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V26" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W26" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X26" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y26" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="27">
@@ -6300,31 +6300,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I27" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273905</v>
       </c>
       <c r="J27" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K27" t="n">
-        <v>93.81666304797187</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L27" t="n">
-        <v>93.81666304797187</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M27" t="n">
-        <v>680.0291294438171</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N27" t="n">
-        <v>1307.627092998424</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O27" t="n">
-        <v>1859.536823237711</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P27" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q27" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R27" t="n">
         <v>2553.061288060775</v>
@@ -6358,19 +6358,19 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>513.8536007400717</v>
+        <v>1016.58045691144</v>
       </c>
       <c r="C28" t="n">
-        <v>344.9174178121648</v>
+        <v>847.644273983533</v>
       </c>
       <c r="D28" t="n">
-        <v>344.9174178121648</v>
+        <v>697.5276345711973</v>
       </c>
       <c r="E28" t="n">
-        <v>344.9174178121648</v>
+        <v>549.6145409888042</v>
       </c>
       <c r="F28" t="n">
-        <v>344.9174178121648</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="G28" t="n">
         <v>235.5284942057738</v>
@@ -6406,28 +6406,28 @@
         <v>2446.963083580261</v>
       </c>
       <c r="R28" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="S28" t="n">
-        <v>2197.062545487568</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="T28" t="n">
-        <v>1977.461080510509</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="U28" t="n">
-        <v>1688.385853854707</v>
+        <v>2191.112710026075</v>
       </c>
       <c r="V28" t="n">
-        <v>1433.70136564882</v>
+        <v>1936.428221820188</v>
       </c>
       <c r="W28" t="n">
-        <v>1144.284195611859</v>
+        <v>1647.011051783227</v>
       </c>
       <c r="X28" t="n">
-        <v>916.2946447138415</v>
+        <v>1419.02150088521</v>
       </c>
       <c r="Y28" t="n">
-        <v>695.5020655703114</v>
+        <v>1198.22892174168</v>
       </c>
     </row>
     <row r="29">
@@ -6449,22 +6449,22 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F29" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G29" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H29" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I29" t="n">
-        <v>95.34095638192616</v>
+        <v>95.34095638192598</v>
       </c>
       <c r="J29" t="n">
-        <v>378.1925803111718</v>
+        <v>378.1925803111716</v>
       </c>
       <c r="K29" t="n">
-        <v>852.8523611075811</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L29" t="n">
         <v>1478.611553332387</v>
@@ -6473,13 +6473,13 @@
         <v>2206.558663014779</v>
       </c>
       <c r="N29" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O29" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P29" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q29" t="n">
         <v>4562.265728852255</v>
@@ -6537,31 +6537,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I30" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273905</v>
       </c>
       <c r="J30" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K30" t="n">
-        <v>93.81666304797187</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L30" t="n">
-        <v>93.81666304797187</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M30" t="n">
-        <v>680.0291294438171</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N30" t="n">
-        <v>1307.627092998424</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O30" t="n">
-        <v>1859.536823237711</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P30" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q30" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R30" t="n">
         <v>2553.061288060775</v>
@@ -6595,19 +6595,19 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>513.8536007400717</v>
+        <v>869.6905094135296</v>
       </c>
       <c r="C31" t="n">
-        <v>344.9174178121648</v>
+        <v>700.7543264856228</v>
       </c>
       <c r="D31" t="n">
-        <v>344.9174178121648</v>
+        <v>550.637687073287</v>
       </c>
       <c r="E31" t="n">
-        <v>344.9174178121648</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="F31" t="n">
-        <v>344.9174178121648</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="G31" t="n">
         <v>235.5284942057738</v>
@@ -6643,28 +6643,28 @@
         <v>2446.963083580261</v>
       </c>
       <c r="R31" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="S31" t="n">
-        <v>2197.062545487568</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="T31" t="n">
-        <v>1977.461080510509</v>
+        <v>2044.506784258106</v>
       </c>
       <c r="U31" t="n">
-        <v>1688.385853854707</v>
+        <v>1755.431557602304</v>
       </c>
       <c r="V31" t="n">
-        <v>1433.70136564882</v>
+        <v>1755.431557602304</v>
       </c>
       <c r="W31" t="n">
-        <v>1144.284195611859</v>
+        <v>1500.121104285317</v>
       </c>
       <c r="X31" t="n">
-        <v>916.2946447138415</v>
+        <v>1272.131553387299</v>
       </c>
       <c r="Y31" t="n">
-        <v>695.5020655703114</v>
+        <v>1051.338974243769</v>
       </c>
     </row>
     <row r="32">
@@ -6677,7 +6677,7 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C32" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611464</v>
       </c>
       <c r="D32" t="n">
         <v>1590.547811004713</v>
@@ -6686,64 +6686,64 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F32" t="n">
-        <v>793.7736536168612</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G32" t="n">
         <v>379.8308874362687</v>
       </c>
       <c r="H32" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I32" t="n">
-        <v>95.34095638192598</v>
+        <v>95.34095638192503</v>
       </c>
       <c r="J32" t="n">
-        <v>378.1925803111716</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K32" t="n">
-        <v>852.8523611075794</v>
+        <v>852.8523611075811</v>
       </c>
       <c r="L32" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M32" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N32" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O32" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P32" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q32" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R32" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S32" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.28515749258</v>
       </c>
       <c r="T32" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U32" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466575</v>
       </c>
       <c r="V32" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123004</v>
       </c>
       <c r="W32" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.98095685289</v>
       </c>
       <c r="X32" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.51519859181</v>
       </c>
       <c r="Y32" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615998</v>
       </c>
     </row>
     <row r="33">
@@ -6762,7 +6762,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E33" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F33" t="n">
         <v>314.2396613568978</v>
@@ -6771,25 +6771,25 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H33" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I33" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273906</v>
       </c>
       <c r="J33" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K33" t="n">
-        <v>280.8495004245705</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L33" t="n">
-        <v>776.1751066403293</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M33" t="n">
-        <v>1373.553594266881</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N33" t="n">
-        <v>2001.151557821488</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O33" t="n">
         <v>2553.061288060775</v>
@@ -6850,10 +6850,10 @@
         <v>235.5284942057738</v>
       </c>
       <c r="H34" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I34" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J34" t="n">
         <v>174.0526814782958</v>
@@ -6883,7 +6883,7 @@
         <v>2379.917379832663</v>
       </c>
       <c r="S34" t="n">
-        <v>2254.869721166297</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T34" t="n">
         <v>2035.268256189238</v>
@@ -6914,7 +6914,7 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C35" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611464</v>
       </c>
       <c r="D35" t="n">
         <v>1590.547811004713</v>
@@ -6923,61 +6923,61 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F35" t="n">
-        <v>793.7736536168612</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G35" t="n">
-        <v>379.8308874362687</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H35" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I35" t="n">
-        <v>95.34095638192451</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J35" t="n">
-        <v>378.1925803111701</v>
+        <v>378.1925803111716</v>
       </c>
       <c r="K35" t="n">
-        <v>852.8523611075794</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L35" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M35" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N35" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O35" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P35" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q35" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R35" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S35" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T35" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U35" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466574</v>
       </c>
       <c r="V35" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W35" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X35" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y35" t="n">
         <v>2704.375866615997</v>
@@ -6999,7 +6999,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E36" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F36" t="n">
         <v>314.2396613568978</v>
@@ -7008,28 +7008,28 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H36" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I36" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273906</v>
       </c>
       <c r="J36" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K36" t="n">
-        <v>93.81666304797187</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L36" t="n">
-        <v>589.1422692637307</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M36" t="n">
-        <v>1186.520756890282</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N36" t="n">
-        <v>1814.118720444889</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O36" t="n">
-        <v>2366.028450684176</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P36" t="n">
         <v>2553.061288060775</v>
@@ -7087,10 +7087,10 @@
         <v>235.5284942057738</v>
       </c>
       <c r="H37" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I37" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J37" t="n">
         <v>174.0526814782958</v>
@@ -7120,13 +7120,13 @@
         <v>2379.917379832663</v>
       </c>
       <c r="S37" t="n">
-        <v>2197.062545487568</v>
+        <v>2254.869721166297</v>
       </c>
       <c r="T37" t="n">
-        <v>1977.461080510509</v>
+        <v>2035.268256189238</v>
       </c>
       <c r="U37" t="n">
-        <v>1688.385853854707</v>
+        <v>1746.193029533436</v>
       </c>
       <c r="V37" t="n">
         <v>1491.508541327549</v>
@@ -7163,13 +7163,13 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G38" t="n">
-        <v>379.8308874362687</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H38" t="n">
-        <v>93.81666304797191</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I38" t="n">
-        <v>95.34095638192602</v>
+        <v>95.34095638192598</v>
       </c>
       <c r="J38" t="n">
         <v>378.1925803111716</v>
@@ -7193,31 +7193,31 @@
         <v>4194.413870694708</v>
       </c>
       <c r="Q38" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R38" t="n">
-        <v>4690.833152398595</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S38" t="n">
-        <v>4606.28515749258</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T38" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U38" t="n">
-        <v>4151.812499466575</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V38" t="n">
-        <v>3820.749612123004</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W38" t="n">
-        <v>3467.98095685289</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X38" t="n">
-        <v>3094.51519859181</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y38" t="n">
-        <v>2704.375866615998</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="39">
@@ -7236,7 +7236,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E39" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F39" t="n">
         <v>314.2396613568978</v>
@@ -7245,34 +7245,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H39" t="n">
-        <v>93.81666304797191</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I39" t="n">
-        <v>93.81666304797191</v>
+        <v>95.58405025273905</v>
       </c>
       <c r="J39" t="n">
-        <v>93.81666304797191</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K39" t="n">
-        <v>93.81666304797191</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L39" t="n">
-        <v>93.81666304797191</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M39" t="n">
-        <v>680.0291294438171</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N39" t="n">
-        <v>1307.627092998424</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O39" t="n">
-        <v>1859.536823237711</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P39" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q39" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R39" t="n">
         <v>2553.061288060775</v>
@@ -7306,28 +7306,28 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>513.8536007400717</v>
+        <v>571.6607764188008</v>
       </c>
       <c r="C40" t="n">
-        <v>344.9174178121648</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="D40" t="n">
-        <v>344.9174178121648</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="E40" t="n">
-        <v>344.9174178121648</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="F40" t="n">
-        <v>344.9174178121648</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="G40" t="n">
         <v>235.5284942057738</v>
       </c>
       <c r="H40" t="n">
-        <v>93.81666304797191</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I40" t="n">
-        <v>93.81666304797191</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J40" t="n">
         <v>174.0526814782958</v>
@@ -7360,22 +7360,22 @@
         <v>2197.062545487568</v>
       </c>
       <c r="T40" t="n">
-        <v>1977.461080510509</v>
+        <v>2035.268256189238</v>
       </c>
       <c r="U40" t="n">
-        <v>1688.385853854707</v>
+        <v>1746.193029533436</v>
       </c>
       <c r="V40" t="n">
-        <v>1433.70136564882</v>
+        <v>1491.508541327549</v>
       </c>
       <c r="W40" t="n">
-        <v>1144.284195611859</v>
+        <v>1202.091371290588</v>
       </c>
       <c r="X40" t="n">
-        <v>916.2946447138415</v>
+        <v>974.1018203925706</v>
       </c>
       <c r="Y40" t="n">
-        <v>695.5020655703114</v>
+        <v>753.3092412490405</v>
       </c>
     </row>
     <row r="41">
@@ -7397,40 +7397,40 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F41" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168612</v>
       </c>
       <c r="G41" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362687</v>
       </c>
       <c r="H41" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I41" t="n">
-        <v>95.34095638192451</v>
+        <v>95.34095638192598</v>
       </c>
       <c r="J41" t="n">
-        <v>378.1925803111701</v>
+        <v>378.1925803111716</v>
       </c>
       <c r="K41" t="n">
-        <v>852.8523611075794</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L41" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M41" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N41" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O41" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P41" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q41" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R41" t="n">
         <v>4690.833152398593</v>
@@ -7485,31 +7485,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I42" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273905</v>
       </c>
       <c r="J42" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K42" t="n">
-        <v>93.81666304797187</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L42" t="n">
-        <v>93.81666304797187</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M42" t="n">
-        <v>680.0291294438171</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N42" t="n">
-        <v>1307.627092998424</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O42" t="n">
-        <v>1859.536823237711</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P42" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q42" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R42" t="n">
         <v>2553.061288060775</v>
@@ -7555,22 +7555,22 @@
         <v>533.5814564942658</v>
       </c>
       <c r="F43" t="n">
-        <v>411.2214559580114</v>
+        <v>411.2214559580117</v>
       </c>
       <c r="G43" t="n">
-        <v>268.5553036345476</v>
+        <v>268.555303634548</v>
       </c>
       <c r="H43" t="n">
-        <v>151.373419438402</v>
+        <v>151.3734194384023</v>
       </c>
       <c r="I43" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J43" t="n">
-        <v>198.094482495415</v>
+        <v>198.0944824954151</v>
       </c>
       <c r="K43" t="n">
-        <v>483.825546038073</v>
+        <v>483.8255460380731</v>
       </c>
       <c r="L43" t="n">
         <v>898.2659412311325</v>
@@ -7646,28 +7646,28 @@
         <v>95.34095638192598</v>
       </c>
       <c r="J44" t="n">
-        <v>378.1925803111701</v>
+        <v>378.1925803111716</v>
       </c>
       <c r="K44" t="n">
-        <v>852.8523611075794</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L44" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M44" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N44" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O44" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P44" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q44" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R44" t="n">
         <v>4690.833152398593</v>
@@ -7722,31 +7722,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I45" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273905</v>
       </c>
       <c r="J45" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K45" t="n">
-        <v>93.81666304797187</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L45" t="n">
-        <v>93.81666304797187</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M45" t="n">
-        <v>680.0291294438171</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N45" t="n">
-        <v>1307.627092998424</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O45" t="n">
-        <v>1859.536823237711</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P45" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q45" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R45" t="n">
         <v>2553.061288060775</v>
@@ -7780,22 +7780,22 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>926.9575315319324</v>
+        <v>926.9575315319323</v>
       </c>
       <c r="C46" t="n">
-        <v>782.5512955656818</v>
+        <v>782.5512955656817</v>
       </c>
       <c r="D46" t="n">
-        <v>656.9646031150023</v>
+        <v>656.9646031150022</v>
       </c>
       <c r="E46" t="n">
-        <v>533.5814564942655</v>
+        <v>533.5814564942654</v>
       </c>
       <c r="F46" t="n">
-        <v>411.2214559580114</v>
+        <v>411.2214559580112</v>
       </c>
       <c r="G46" t="n">
-        <v>268.5553036345476</v>
+        <v>268.5553036345474</v>
       </c>
       <c r="H46" t="n">
         <v>151.373419438402</v>
@@ -7804,22 +7804,22 @@
         <v>93.81666304797189</v>
       </c>
       <c r="J46" t="n">
-        <v>198.0944824954151</v>
+        <v>198.0944824954149</v>
       </c>
       <c r="K46" t="n">
-        <v>483.8255460380729</v>
+        <v>483.8255460380731</v>
       </c>
       <c r="L46" t="n">
-        <v>898.2659412311324</v>
+        <v>898.2659412311326</v>
       </c>
       <c r="M46" t="n">
-        <v>1344.317444979286</v>
+        <v>1344.317444979287</v>
       </c>
       <c r="N46" t="n">
         <v>1785.769117656414</v>
       </c>
       <c r="O46" t="n">
-        <v>2179.340199382518</v>
+        <v>2179.340199382519</v>
       </c>
       <c r="P46" t="n">
         <v>2496.057455973196</v>
@@ -7828,16 +7828,16 @@
         <v>2639.297491717215</v>
       </c>
       <c r="R46" t="n">
-        <v>2596.781734931274</v>
+        <v>2596.781734931273</v>
       </c>
       <c r="S46" t="n">
-        <v>2438.456847547835</v>
+        <v>2438.456847547834</v>
       </c>
       <c r="T46" t="n">
         <v>2243.385329532432</v>
       </c>
       <c r="U46" t="n">
-        <v>1978.840049838286</v>
+        <v>1978.840049838285</v>
       </c>
       <c r="V46" t="n">
         <v>1748.685508594055</v>
@@ -8316,7 +8316,7 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>0</v>
+        <v>9.094947017729282e-13</v>
       </c>
       <c r="S6" t="n">
         <v>0</v>
@@ -22553,19 +22553,19 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G2" t="n">
-        <v>410.9217256534534</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>44.47000117377618</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>41.57692977292595</v>
+        <v>13.74222554972029</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -22595,7 +22595,7 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T2" t="n">
         <v>0</v>
@@ -22610,10 +22610,10 @@
         <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="3">
@@ -23428,13 +23428,13 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
         <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23470,10 +23470,10 @@
         <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>166.0397529241831</v>
+        <v>0</v>
       </c>
       <c r="V13" t="n">
-        <v>0</v>
+        <v>250.2980548978878</v>
       </c>
       <c r="W13" t="n">
         <v>0</v>
@@ -23656,13 +23656,13 @@
         <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>105.0969227051391</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
         <v>0</v>
@@ -23698,16 +23698,16 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T16" t="n">
         <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>0</v>
+        <v>151.7319110345144</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -23890,7 +23890,7 @@
         <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D19" t="n">
         <v>148.6154730182124</v>
@@ -23902,13 +23902,13 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>97.57899151910883</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23950,10 +23950,10 @@
         <v>0</v>
       </c>
       <c r="W19" t="n">
-        <v>0</v>
+        <v>123.3744592024029</v>
       </c>
       <c r="X19" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y19" t="n">
         <v>0</v>
@@ -24130,7 +24130,7 @@
         <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
         <v>146.4339626465692</v>
@@ -24142,7 +24142,7 @@
         <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I22" t="n">
         <v>81.26583631856552</v>
@@ -24172,10 +24172,10 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>66.37524671012166</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>136.2749052347515</v>
+        <v>0</v>
       </c>
       <c r="T22" t="n">
         <v>0</v>
@@ -24193,7 +24193,7 @@
         <v>0</v>
       </c>
       <c r="Y22" t="n">
-        <v>0</v>
+        <v>210.9709121168574</v>
       </c>
     </row>
     <row r="23">
@@ -24361,7 +24361,7 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C25" t="n">
         <v>0</v>
@@ -24370,19 +24370,19 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>104.0840080815012</v>
       </c>
       <c r="H25" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24418,7 +24418,7 @@
         <v>0</v>
       </c>
       <c r="U25" t="n">
-        <v>63.36835372228722</v>
+        <v>0</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -24604,16 +24604,16 @@
         <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>57.22910392194174</v>
+        <v>0</v>
       </c>
       <c r="H28" t="n">
         <v>0</v>
@@ -24646,16 +24646,16 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S28" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T28" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U28" t="n">
-        <v>0</v>
+        <v>32.89260457059976</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -24841,16 +24841,16 @@
         <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
-        <v>57.22910392194174</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
         <v>0</v>
@@ -24883,7 +24883,7 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>0</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S31" t="n">
         <v>0</v>
@@ -24895,10 +24895,10 @@
         <v>0</v>
       </c>
       <c r="V31" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W31" t="n">
-        <v>0</v>
+        <v>33.76564955277351</v>
       </c>
       <c r="X31" t="n">
         <v>0</v>
@@ -25123,10 +25123,10 @@
         <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>57.22910392194156</v>
+        <v>0</v>
       </c>
       <c r="T34" t="n">
-        <v>0</v>
+        <v>57.22910392194191</v>
       </c>
       <c r="U34" t="n">
         <v>0</v>
@@ -25360,7 +25360,7 @@
         <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>0</v>
+        <v>57.22910392194156</v>
       </c>
       <c r="T37" t="n">
         <v>0</v>
@@ -25369,7 +25369,7 @@
         <v>0</v>
       </c>
       <c r="V37" t="n">
-        <v>57.22910392194183</v>
+        <v>0</v>
       </c>
       <c r="W37" t="n">
         <v>0</v>
@@ -25561,7 +25561,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
-        <v>57.2291039219418</v>
+        <v>0</v>
       </c>
       <c r="H40" t="n">
         <v>0</v>
@@ -25600,7 +25600,7 @@
         <v>0</v>
       </c>
       <c r="T40" t="n">
-        <v>0</v>
+        <v>57.22910392194191</v>
       </c>
       <c r="U40" t="n">
         <v>0</v>
@@ -26123,7 +26123,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>1019590.470970438</v>
+        <v>1019590.470970437</v>
       </c>
     </row>
     <row r="3">
@@ -26179,7 +26179,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>1143424.006796279</v>
+        <v>1143424.00679628</v>
       </c>
     </row>
     <row r="10">
@@ -26187,7 +26187,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>1143424.006796279</v>
+        <v>1143424.00679628</v>
       </c>
     </row>
     <row r="11">
@@ -26195,7 +26195,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>1143424.006796279</v>
+        <v>1143424.00679628</v>
       </c>
     </row>
     <row r="12">
@@ -26203,7 +26203,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>1143424.00679628</v>
+        <v>1143424.006796279</v>
       </c>
     </row>
     <row r="13">
@@ -26211,7 +26211,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>1143424.006796279</v>
+        <v>1143424.00679628</v>
       </c>
     </row>
     <row r="14">
@@ -26311,49 +26311,49 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>251542.9259350416</v>
+        <v>251542.9259350415</v>
       </c>
       <c r="C2" t="n">
-        <v>287364.6194524992</v>
+        <v>287364.6194524991</v>
       </c>
       <c r="D2" t="n">
-        <v>287364.6194524993</v>
+        <v>287364.6194524991</v>
       </c>
       <c r="E2" t="n">
+        <v>282501.3098915021</v>
+      </c>
+      <c r="F2" t="n">
         <v>282501.3098915022</v>
       </c>
-      <c r="F2" t="n">
+      <c r="G2" t="n">
+        <v>282501.3098915022</v>
+      </c>
+      <c r="H2" t="n">
+        <v>282501.3098915022</v>
+      </c>
+      <c r="I2" t="n">
+        <v>282501.3098915022</v>
+      </c>
+      <c r="J2" t="n">
         <v>282501.3098915021</v>
       </c>
-      <c r="G2" t="n">
-        <v>282501.3098915023</v>
-      </c>
-      <c r="H2" t="n">
-        <v>282501.3098915023</v>
-      </c>
-      <c r="I2" t="n">
-        <v>282501.3098915023</v>
-      </c>
-      <c r="J2" t="n">
-        <v>282501.3098915023</v>
-      </c>
       <c r="K2" t="n">
-        <v>282501.3098915023</v>
+        <v>282501.3098915021</v>
       </c>
       <c r="L2" t="n">
-        <v>282501.3098915022</v>
+        <v>282501.3098915021</v>
       </c>
       <c r="M2" t="n">
         <v>282501.3098915022</v>
       </c>
       <c r="N2" t="n">
-        <v>282501.3098915023</v>
+        <v>282501.3098915022</v>
       </c>
       <c r="O2" t="n">
-        <v>287364.6194524994</v>
+        <v>287364.6194524992</v>
       </c>
       <c r="P2" t="n">
-        <v>287364.6194524994</v>
+        <v>287364.6194524992</v>
       </c>
     </row>
     <row r="3">
@@ -26369,16 +26369,16 @@
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>1.947259988810401e-10</v>
+        <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>325412.4618073551</v>
+        <v>325412.4618073556</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>1.246394276677165e-10</v>
+        <v>0</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -26387,7 +26387,7 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>217531.2023972773</v>
+        <v>217531.2023972774</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -26396,13 +26396,13 @@
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>85055.02793551178</v>
+        <v>85055.02793551187</v>
       </c>
       <c r="N3" t="n">
-        <v>1.11379904410569e-10</v>
+        <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>19427.71799363176</v>
+        <v>19427.71799363182</v>
       </c>
       <c r="P3" t="n">
         <v>0</v>
@@ -26415,13 +26415,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>34987.0918457521</v>
+        <v>34987.09184575206</v>
       </c>
       <c r="C4" t="n">
-        <v>93403.78684820631</v>
+        <v>93403.78684820642</v>
       </c>
       <c r="D4" t="n">
-        <v>93403.78684820625</v>
+        <v>93403.78684820639</v>
       </c>
       <c r="E4" t="n">
         <v>14216.75207685505</v>
@@ -26433,7 +26433,7 @@
         <v>14216.75207685505</v>
       </c>
       <c r="H4" t="n">
-        <v>14216.75207685498</v>
+        <v>14216.75207685505</v>
       </c>
       <c r="I4" t="n">
         <v>14216.75207685505</v>
@@ -26442,22 +26442,22 @@
         <v>14216.75207685505</v>
       </c>
       <c r="K4" t="n">
-        <v>14216.75207685504</v>
+        <v>14216.75207685505</v>
       </c>
       <c r="L4" t="n">
-        <v>14216.75207685505</v>
+        <v>14216.75207685497</v>
       </c>
       <c r="M4" t="n">
-        <v>14216.75207685505</v>
+        <v>14216.75207685503</v>
       </c>
       <c r="N4" t="n">
-        <v>14216.75207685495</v>
+        <v>14216.75207685507</v>
       </c>
       <c r="O4" t="n">
-        <v>22207.61133994851</v>
+        <v>22207.61133994852</v>
       </c>
       <c r="P4" t="n">
-        <v>22207.61133994851</v>
+        <v>22207.61133994852</v>
       </c>
     </row>
     <row r="5">
@@ -26519,49 +26519,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-1220122.852199696</v>
+        <v>-1220378.721439107</v>
       </c>
       <c r="C6" t="n">
-        <v>86026.89204289959</v>
+        <v>86026.89204289968</v>
       </c>
       <c r="D6" t="n">
-        <v>86026.89204289956</v>
+        <v>86026.89204289942</v>
       </c>
       <c r="E6" t="n">
-        <v>-158250.4338166151</v>
+        <v>-158285.1717420513</v>
       </c>
       <c r="F6" t="n">
-        <v>167162.0279907399</v>
+        <v>167127.2900653043</v>
       </c>
       <c r="G6" t="n">
-        <v>167162.02799074</v>
+        <v>167127.2900653043</v>
       </c>
       <c r="H6" t="n">
-        <v>167162.0279907401</v>
+        <v>167127.2900653043</v>
       </c>
       <c r="I6" t="n">
-        <v>167162.0279907401</v>
+        <v>167127.2900653043</v>
       </c>
       <c r="J6" t="n">
-        <v>-50369.1744065372</v>
+        <v>-50403.91233197312</v>
       </c>
       <c r="K6" t="n">
-        <v>167162.0279907401</v>
+        <v>167127.2900653043</v>
       </c>
       <c r="L6" t="n">
-        <v>167162.02799074</v>
+        <v>167127.2900653044</v>
       </c>
       <c r="M6" t="n">
-        <v>82107.00005522826</v>
+        <v>82072.26212979246</v>
       </c>
       <c r="N6" t="n">
-        <v>167162.0279907401</v>
+        <v>167127.2900653043</v>
       </c>
       <c r="O6" t="n">
-        <v>142565.1742650037</v>
+        <v>142565.1742650034</v>
       </c>
       <c r="P6" t="n">
-        <v>161992.8922586355</v>
+        <v>161992.8922586353</v>
       </c>
     </row>
   </sheetData>
@@ -26722,10 +26722,10 @@
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="P2" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203971</v>
       </c>
     </row>
     <row r="3">
@@ -26741,7 +26741,7 @@
         <v>1089.776700593298</v>
       </c>
       <c r="D3" t="n">
-        <v>1089.776700593299</v>
+        <v>1089.776700593298</v>
       </c>
       <c r="E3" t="n">
         <v>1367.975500341674</v>
@@ -26787,19 +26787,19 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>831.4014554022926</v>
+        <v>831.4014554022924</v>
       </c>
       <c r="C4" t="n">
-        <v>831.4014554022929</v>
+        <v>831.4014554022924</v>
       </c>
       <c r="D4" t="n">
-        <v>831.4014554022931</v>
+        <v>831.4014554022925</v>
       </c>
       <c r="E4" t="n">
+        <v>1172.708288099648</v>
+      </c>
+      <c r="F4" t="n">
         <v>1172.708288099649</v>
-      </c>
-      <c r="F4" t="n">
-        <v>1172.708288099648</v>
       </c>
       <c r="G4" t="n">
         <v>1172.708288099649</v>
@@ -26808,7 +26808,7 @@
         <v>1172.708288099649</v>
       </c>
       <c r="I4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="J4" t="n">
         <v>1172.708288099648</v>
@@ -26817,13 +26817,13 @@
         <v>1172.708288099648</v>
       </c>
       <c r="L4" t="n">
+        <v>1172.708288099649</v>
+      </c>
+      <c r="M4" t="n">
+        <v>1172.708288099649</v>
+      </c>
+      <c r="N4" t="n">
         <v>1172.708288099648</v>
-      </c>
-      <c r="M4" t="n">
-        <v>1172.708288099648</v>
-      </c>
-      <c r="N4" t="n">
-        <v>1172.708288099649</v>
       </c>
       <c r="O4" t="n">
         <v>1172.708288099648</v>
@@ -26944,7 +26944,7 @@
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203978</v>
       </c>
       <c r="P2" t="n">
         <v>0</v>
@@ -26963,10 +26963,10 @@
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>2.273736754432321e-13</v>
+        <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>278.1987997483754</v>
+        <v>278.1987997483759</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -27009,7 +27009,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>831.4014554022926</v>
+        <v>831.4014554022924</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -27018,13 +27018,13 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>341.3068326973555</v>
+        <v>341.3068326973558</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>4.547473508864641e-13</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
@@ -27033,7 +27033,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>831.4014554022922</v>
+        <v>831.4014554022924</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27042,10 +27042,10 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>341.3068326973555</v>
+        <v>341.3068326973558</v>
       </c>
       <c r="N4" t="n">
-        <v>4.547473508864641e-13</v>
+        <v>0</v>
       </c>
       <c r="O4" t="n">
         <v>0</v>
@@ -27255,7 +27255,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>831.4014554022926</v>
+        <v>831.4014554022924</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27264,13 +27264,13 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>341.3068326973555</v>
+        <v>341.3068326973558</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
       </c>
       <c r="O4" t="n">
-        <v>4.547473508864641e-13</v>
+        <v>0</v>
       </c>
       <c r="P4" t="n">
         <v>0</v>
@@ -27433,10 +27433,10 @@
         <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>123.3879405522663</v>
       </c>
       <c r="V2" t="n">
-        <v>123.3879405522671</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
         <v>0</v>
@@ -27540,19 +27540,19 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D4" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
         <v>166.0258082590282</v>
       </c>
       <c r="H4" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
         <v>0</v>
@@ -27582,19 +27582,19 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>47.16577821097735</v>
       </c>
       <c r="T4" t="n">
         <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>21.59472895491439</v>
+        <v>0</v>
       </c>
       <c r="V4" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
         <v>0</v>
@@ -27603,7 +27603,7 @@
         <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="5">
@@ -27619,10 +27619,10 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>306.4732379112239</v>
+        <v>274.918340875855</v>
       </c>
       <c r="F5" t="n">
         <v>0</v>
@@ -27682,7 +27682,7 @@
         <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="6">
@@ -27783,16 +27783,16 @@
         <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>45.28680867601842</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I7" t="n">
-        <v>96.35242040983809</v>
+        <v>0</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -27819,25 +27819,25 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>88.93215267004733</v>
+        <v>88.93215267004734</v>
       </c>
       <c r="S7" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T7" t="n">
         <v>219.5489492761692</v>
       </c>
       <c r="U7" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V7" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X7" t="n">
-        <v>176.4306730800675</v>
+        <v>0</v>
       </c>
       <c r="Y7" t="n">
         <v>0</v>
@@ -27850,28 +27850,28 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>222.7020862222406</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
         <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
         <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G8" t="n">
         <v>0</v>
       </c>
       <c r="H8" t="n">
-        <v>294.6077643873205</v>
+        <v>39.25397075469837</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>41.57692977292598</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27901,22 +27901,22 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>109.1877617881758</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>203.9179701396201</v>
+        <v>203.9179701396202</v>
       </c>
       <c r="U8" t="n">
-        <v>250.995171958902</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
         <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
         <v>0</v>
@@ -28011,25 +28011,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
-        <v>93.91540923204225</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>2.335964134057349</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I10" t="n">
-        <v>0</v>
+        <v>96.35242040983812</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -28056,7 +28056,7 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>88.93215267004732</v>
+        <v>88.93215267004734</v>
       </c>
       <c r="S10" t="n">
         <v>0</v>
@@ -28068,16 +28068,16 @@
         <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W10" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X10" t="n">
         <v>0</v>
       </c>
       <c r="Y10" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -28090,7 +28090,7 @@
         <v>0</v>
       </c>
       <c r="C11" t="n">
-        <v>-3.979039320256561e-13</v>
+        <v>0</v>
       </c>
       <c r="D11" t="n">
         <v>0</v>
@@ -28245,7 +28245,7 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>1.319714707885093e-12</v>
+        <v>0</v>
       </c>
       <c r="C13" t="n">
         <v>0</v>
@@ -28336,7 +28336,7 @@
         <v>0</v>
       </c>
       <c r="F14" t="n">
-        <v>0</v>
+        <v>-3.979039320256561e-13</v>
       </c>
       <c r="G14" t="n">
         <v>0</v>
@@ -28548,7 +28548,7 @@
         <v>0</v>
       </c>
       <c r="X16" t="n">
-        <v>0</v>
+        <v>1.319714707885093e-12</v>
       </c>
       <c r="Y16" t="n">
         <v>0</v>
@@ -28749,7 +28749,7 @@
         <v>0</v>
       </c>
       <c r="L19" t="n">
-        <v>0</v>
+        <v>1.885306725550132e-12</v>
       </c>
       <c r="M19" t="n">
         <v>0</v>
@@ -28761,7 +28761,7 @@
         <v>0</v>
       </c>
       <c r="P19" t="n">
-        <v>2.168102734382652e-12</v>
+        <v>0</v>
       </c>
       <c r="Q19" t="n">
         <v>0</v>
@@ -28852,7 +28852,7 @@
         <v>0</v>
       </c>
       <c r="T20" t="n">
-        <v>0</v>
+        <v>-1.250555214937776e-12</v>
       </c>
       <c r="U20" t="n">
         <v>0</v>
@@ -28980,7 +28980,7 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>0</v>
+        <v>4.147674796210292e-12</v>
       </c>
       <c r="K22" t="n">
         <v>0</v>
@@ -29746,7 +29746,7 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>0</v>
+        <v>-5.856816146789853e-13</v>
       </c>
       <c r="C32" t="n">
         <v>0</v>
@@ -29758,13 +29758,13 @@
         <v>0</v>
       </c>
       <c r="F32" t="n">
-        <v>0</v>
+        <v>-6.436047097567693e-14</v>
       </c>
       <c r="G32" t="n">
-        <v>0</v>
+        <v>-6.436047097567693e-14</v>
       </c>
       <c r="H32" t="n">
-        <v>0</v>
+        <v>-6.436047097567693e-14</v>
       </c>
       <c r="I32" t="n">
         <v>0</v>
@@ -29797,13 +29797,13 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>0</v>
+        <v>-6.436047097567693e-14</v>
       </c>
       <c r="T32" t="n">
-        <v>0</v>
+        <v>-6.436047097567693e-14</v>
       </c>
       <c r="U32" t="n">
-        <v>0</v>
+        <v>-6.436047097567693e-14</v>
       </c>
       <c r="V32" t="n">
         <v>0</v>
@@ -29995,7 +29995,7 @@
         <v>0</v>
       </c>
       <c r="F35" t="n">
-        <v>0</v>
+        <v>-3.979039320256561e-13</v>
       </c>
       <c r="G35" t="n">
         <v>0</v>
@@ -30280,7 +30280,7 @@
         <v>0</v>
       </c>
       <c r="V38" t="n">
-        <v>0</v>
+        <v>3.410605131648481e-13</v>
       </c>
       <c r="W38" t="n">
         <v>0</v>
@@ -30615,76 +30615,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="C43" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="D43" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="E43" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="F43" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="G43" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="H43" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="I43" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="J43" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="K43" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="L43" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="M43" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="N43" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="O43" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="P43" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="Q43" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="R43" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="S43" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="T43" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="U43" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="V43" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="W43" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="X43" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="Y43" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203971</v>
       </c>
     </row>
     <row r="44">
@@ -30852,76 +30852,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="C46" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="D46" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="E46" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="F46" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="G46" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="H46" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="I46" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="J46" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="K46" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="L46" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="M46" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="N46" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="O46" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="P46" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="Q46" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="R46" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="S46" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="T46" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="U46" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="V46" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="W46" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="X46" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="Y46" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203971</v>
       </c>
     </row>
   </sheetData>
@@ -31276,43 +31276,43 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>4.381011861681598</v>
+        <v>4.381011861681597</v>
       </c>
       <c r="H5" t="n">
-        <v>44.86703772844668</v>
+        <v>44.86703772844667</v>
       </c>
       <c r="I5" t="n">
-        <v>168.89895979748</v>
+        <v>168.8989597974799</v>
       </c>
       <c r="J5" t="n">
         <v>371.8329054953988</v>
       </c>
       <c r="K5" t="n">
-        <v>557.281137600381</v>
+        <v>557.2811376003809</v>
       </c>
       <c r="L5" t="n">
-        <v>691.3565293623194</v>
+        <v>691.3565293623192</v>
       </c>
       <c r="M5" t="n">
-        <v>769.2673490574995</v>
+        <v>769.2673490574992</v>
       </c>
       <c r="N5" t="n">
-        <v>781.7148990095023</v>
+        <v>781.7148990095022</v>
       </c>
       <c r="O5" t="n">
-        <v>738.1512123099059</v>
+        <v>738.1512123099058</v>
       </c>
       <c r="P5" t="n">
-        <v>629.9949819746414</v>
+        <v>629.9949819746412</v>
       </c>
       <c r="Q5" t="n">
-        <v>473.099994678169</v>
+        <v>473.0999946781689</v>
       </c>
       <c r="R5" t="n">
-        <v>275.1987363563569</v>
+        <v>275.1987363563568</v>
       </c>
       <c r="S5" t="n">
-        <v>99.83230779806951</v>
+        <v>99.83230779806949</v>
       </c>
       <c r="T5" t="n">
         <v>19.1778794245112</v>
@@ -31361,40 +31361,40 @@
         <v>22.63856881798531</v>
       </c>
       <c r="I6" t="n">
-        <v>80.70516131752258</v>
+        <v>80.70516131752255</v>
       </c>
       <c r="J6" t="n">
-        <v>221.4611312026438</v>
+        <v>221.4611312026437</v>
       </c>
       <c r="K6" t="n">
         <v>378.5123470353157</v>
       </c>
       <c r="L6" t="n">
-        <v>508.9565619138796</v>
+        <v>508.9565619138795</v>
       </c>
       <c r="M6" t="n">
-        <v>593.9283018233475</v>
+        <v>593.9283018233474</v>
       </c>
       <c r="N6" t="n">
-        <v>609.6478166837925</v>
+        <v>609.6478166837924</v>
       </c>
       <c r="O6" t="n">
-        <v>557.708647897025</v>
+        <v>557.7086478970249</v>
       </c>
       <c r="P6" t="n">
-        <v>447.6103584002927</v>
+        <v>447.6103584002926</v>
       </c>
       <c r="Q6" t="n">
-        <v>299.2156706987487</v>
+        <v>299.2156706987486</v>
       </c>
       <c r="R6" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S6" t="n">
-        <v>43.53966346238316</v>
+        <v>43.53966346238315</v>
       </c>
       <c r="T6" t="n">
-        <v>9.448158375898497</v>
+        <v>9.448158375898496</v>
       </c>
       <c r="U6" t="n">
         <v>0.1542136840462215</v>
@@ -31434,13 +31434,13 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>1.965171099430538</v>
+        <v>1.965171099430537</v>
       </c>
       <c r="H7" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I7" t="n">
-        <v>59.09805451742019</v>
+        <v>59.09805451742017</v>
       </c>
       <c r="J7" t="n">
         <v>138.937596729739</v>
@@ -31449,16 +31449,16 @@
         <v>228.3171513702024</v>
       </c>
       <c r="L7" t="n">
-        <v>292.167346909882</v>
+        <v>292.1673469098819</v>
       </c>
       <c r="M7" t="n">
         <v>308.0495024316432</v>
       </c>
       <c r="N7" t="n">
-        <v>300.7247737883115</v>
+        <v>300.7247737883114</v>
       </c>
       <c r="O7" t="n">
-        <v>277.7680023086001</v>
+        <v>277.7680023086</v>
       </c>
       <c r="P7" t="n">
         <v>237.6785118802169</v>
@@ -31467,16 +31467,16 @@
         <v>164.556281789588</v>
       </c>
       <c r="R7" t="n">
-        <v>88.36123870712215</v>
+        <v>88.36123870712214</v>
       </c>
       <c r="S7" t="n">
-        <v>34.24757270553036</v>
+        <v>34.24757270553035</v>
       </c>
       <c r="T7" t="n">
-        <v>8.396640152112296</v>
+        <v>8.396640152112294</v>
       </c>
       <c r="U7" t="n">
-        <v>0.1071911508780295</v>
+        <v>0.1071911508780294</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -31513,49 +31513,49 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>4.381011861681599</v>
+        <v>4.381011861681597</v>
       </c>
       <c r="H8" t="n">
-        <v>44.86703772844668</v>
+        <v>44.86703772844667</v>
       </c>
       <c r="I8" t="n">
-        <v>168.89895979748</v>
+        <v>168.8989597974799</v>
       </c>
       <c r="J8" t="n">
-        <v>371.832905495399</v>
+        <v>371.8329054953988</v>
       </c>
       <c r="K8" t="n">
-        <v>557.2811376003812</v>
+        <v>557.2811376003809</v>
       </c>
       <c r="L8" t="n">
-        <v>691.3565293623195</v>
+        <v>691.3565293623192</v>
       </c>
       <c r="M8" t="n">
-        <v>769.2673490574996</v>
+        <v>769.2673490574992</v>
       </c>
       <c r="N8" t="n">
-        <v>781.7148990095025</v>
+        <v>781.7148990095022</v>
       </c>
       <c r="O8" t="n">
-        <v>738.1512123099061</v>
+        <v>738.1512123099058</v>
       </c>
       <c r="P8" t="n">
-        <v>629.9949819746415</v>
+        <v>629.9949819746412</v>
       </c>
       <c r="Q8" t="n">
-        <v>473.0999946781691</v>
+        <v>473.0999946781689</v>
       </c>
       <c r="R8" t="n">
-        <v>275.198736356357</v>
+        <v>275.1987363563568</v>
       </c>
       <c r="S8" t="n">
-        <v>99.83230779806954</v>
+        <v>99.83230779806949</v>
       </c>
       <c r="T8" t="n">
-        <v>19.17787942451121</v>
+        <v>19.1778794245112</v>
       </c>
       <c r="U8" t="n">
-        <v>0.3504809489345279</v>
+        <v>0.3504809489345277</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -31592,46 +31592,46 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>2.344047997502567</v>
+        <v>2.344047997502566</v>
       </c>
       <c r="H9" t="n">
-        <v>22.63856881798532</v>
+        <v>22.63856881798531</v>
       </c>
       <c r="I9" t="n">
-        <v>80.7051613175226</v>
+        <v>80.70516131752255</v>
       </c>
       <c r="J9" t="n">
-        <v>221.4611312026439</v>
+        <v>221.4611312026437</v>
       </c>
       <c r="K9" t="n">
-        <v>378.5123470353158</v>
+        <v>378.5123470353157</v>
       </c>
       <c r="L9" t="n">
-        <v>508.9565619138797</v>
+        <v>508.9565619138799</v>
       </c>
       <c r="M9" t="n">
-        <v>593.9283018233476</v>
+        <v>593.9283018233474</v>
       </c>
       <c r="N9" t="n">
-        <v>609.6478166837926</v>
+        <v>609.6478166837924</v>
       </c>
       <c r="O9" t="n">
-        <v>557.7086478970251</v>
+        <v>557.7086478970249</v>
       </c>
       <c r="P9" t="n">
-        <v>447.6103584002928</v>
+        <v>447.6103584002926</v>
       </c>
       <c r="Q9" t="n">
-        <v>299.2156706987487</v>
+        <v>299.2156706987486</v>
       </c>
       <c r="R9" t="n">
-        <v>145.5365940905542</v>
+        <v>145.5365940905541</v>
       </c>
       <c r="S9" t="n">
-        <v>43.53966346238317</v>
+        <v>43.53966346238315</v>
       </c>
       <c r="T9" t="n">
-        <v>9.448158375898499</v>
+        <v>9.448158375898496</v>
       </c>
       <c r="U9" t="n">
         <v>0.1542136840462215</v>
@@ -31671,49 +31671,49 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>1.965171099430538</v>
+        <v>1.965171099430537</v>
       </c>
       <c r="H10" t="n">
-        <v>17.4721575931188</v>
+        <v>17.47215759311879</v>
       </c>
       <c r="I10" t="n">
-        <v>59.0980545174202</v>
+        <v>59.09805451742017</v>
       </c>
       <c r="J10" t="n">
         <v>138.937596729739</v>
       </c>
       <c r="K10" t="n">
-        <v>228.3171513702025</v>
+        <v>228.3171513702024</v>
       </c>
       <c r="L10" t="n">
-        <v>292.167346909882</v>
+        <v>292.1673469098819</v>
       </c>
       <c r="M10" t="n">
-        <v>308.0495024316433</v>
+        <v>308.0495024316432</v>
       </c>
       <c r="N10" t="n">
-        <v>300.7247737883116</v>
+        <v>300.7247737883114</v>
       </c>
       <c r="O10" t="n">
-        <v>277.7680023086002</v>
+        <v>277.7680023086</v>
       </c>
       <c r="P10" t="n">
-        <v>237.678511880217</v>
+        <v>237.6785118802169</v>
       </c>
       <c r="Q10" t="n">
-        <v>164.5562817895881</v>
+        <v>164.556281789588</v>
       </c>
       <c r="R10" t="n">
-        <v>88.36123870712217</v>
+        <v>88.36123870712214</v>
       </c>
       <c r="S10" t="n">
-        <v>34.24757270553037</v>
+        <v>34.24757270553035</v>
       </c>
       <c r="T10" t="n">
-        <v>8.396640152112298</v>
+        <v>8.396640152112294</v>
       </c>
       <c r="U10" t="n">
-        <v>0.1071911508780295</v>
+        <v>0.1071911508780294</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -31844,13 +31844,13 @@
         <v>475.1391886422586</v>
       </c>
       <c r="L12" t="n">
-        <v>638.8832749473073</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M12" t="n">
         <v>745.5466476862122</v>
       </c>
       <c r="N12" t="n">
-        <v>465.7451325200306</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O12" t="n">
         <v>700.0808204437244</v>
@@ -31859,7 +31859,7 @@
         <v>133.9744074143302</v>
       </c>
       <c r="Q12" t="n">
-        <v>139.9817740860215</v>
+        <v>340.7767527663067</v>
       </c>
       <c r="R12" t="n">
         <v>145.679503963964</v>
@@ -32072,7 +32072,7 @@
         <v>28.41775520521101</v>
       </c>
       <c r="I15" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J15" t="n">
         <v>277.9958514420755</v>
@@ -32081,19 +32081,19 @@
         <v>475.1391886422586</v>
       </c>
       <c r="L15" t="n">
-        <v>638.8832749473073</v>
+        <v>514.8598010172136</v>
       </c>
       <c r="M15" t="n">
-        <v>745.5466476862122</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N15" t="n">
         <v>765.2790490071786</v>
       </c>
       <c r="O15" t="n">
-        <v>398.7616643558013</v>
+        <v>700.0808204437244</v>
       </c>
       <c r="P15" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214699</v>
       </c>
       <c r="Q15" t="n">
         <v>139.9817740860215</v>
@@ -32309,34 +32309,34 @@
         <v>28.41775520521101</v>
       </c>
       <c r="I18" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J18" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K18" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L18" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M18" t="n">
-        <v>734.2678383622658</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N18" t="n">
         <v>765.2790490071786</v>
       </c>
       <c r="O18" t="n">
-        <v>700.0808204437244</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P18" t="n">
-        <v>561.8765786214699</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q18" t="n">
-        <v>375.5996128485291</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R18" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S18" t="n">
         <v>54.65449286742439</v>
@@ -32546,34 +32546,34 @@
         <v>28.41775520521101</v>
       </c>
       <c r="I21" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J21" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K21" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L21" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M21" t="n">
-        <v>734.2678383622658</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N21" t="n">
         <v>765.2790490071786</v>
       </c>
       <c r="O21" t="n">
-        <v>700.0808204437244</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P21" t="n">
-        <v>561.8765786214699</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q21" t="n">
-        <v>375.5996128485291</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R21" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S21" t="n">
         <v>54.65449286742439</v>
@@ -32783,34 +32783,34 @@
         <v>28.41775520521101</v>
       </c>
       <c r="I24" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J24" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K24" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L24" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M24" t="n">
-        <v>734.2678383622658</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N24" t="n">
         <v>765.2790490071786</v>
       </c>
       <c r="O24" t="n">
-        <v>700.0808204437244</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P24" t="n">
-        <v>561.8765786214699</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q24" t="n">
-        <v>375.5996128485291</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R24" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S24" t="n">
         <v>54.65449286742439</v>
@@ -32941,7 +32941,7 @@
         <v>56.32071997135341</v>
       </c>
       <c r="I26" t="n">
-        <v>212.0155798067217</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J26" t="n">
         <v>466.7546155663283</v>
@@ -32968,7 +32968,7 @@
         <v>593.8732233669224</v>
       </c>
       <c r="R26" t="n">
-        <v>345.4516222043726</v>
+        <v>345.451622204372</v>
       </c>
       <c r="S26" t="n">
         <v>125.3175546292901</v>
@@ -33020,34 +33020,34 @@
         <v>28.41775520521101</v>
       </c>
       <c r="I27" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J27" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K27" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L27" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M27" t="n">
-        <v>734.267838362266</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N27" t="n">
         <v>765.2790490071786</v>
       </c>
       <c r="O27" t="n">
-        <v>700.0808204437244</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P27" t="n">
-        <v>561.8765786214699</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q27" t="n">
-        <v>375.5996128485291</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R27" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S27" t="n">
         <v>54.65449286742439</v>
@@ -33202,7 +33202,7 @@
         <v>790.8204499236508</v>
       </c>
       <c r="Q29" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669214</v>
       </c>
       <c r="R29" t="n">
         <v>345.4516222043726</v>
@@ -33257,34 +33257,34 @@
         <v>28.41775520521101</v>
       </c>
       <c r="I30" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J30" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K30" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L30" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M30" t="n">
-        <v>734.267838362266</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N30" t="n">
         <v>765.2790490071786</v>
       </c>
       <c r="O30" t="n">
-        <v>700.0808204437244</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P30" t="n">
-        <v>561.8765786214699</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q30" t="n">
-        <v>375.5996128485291</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R30" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S30" t="n">
         <v>54.65449286742439</v>
@@ -33421,7 +33421,7 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K32" t="n">
-        <v>699.5441750817562</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L32" t="n">
         <v>867.8464071162563</v>
@@ -33494,13 +33494,13 @@
         <v>28.41775520521101</v>
       </c>
       <c r="I33" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J33" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K33" t="n">
-        <v>326.7634969305192</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L33" t="n">
         <v>638.8832749473073</v>
@@ -33512,7 +33512,7 @@
         <v>765.2790490071786</v>
       </c>
       <c r="O33" t="n">
-        <v>700.0808204437244</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P33" t="n">
         <v>133.9744074143302</v>
@@ -33652,7 +33652,7 @@
         <v>56.32071997135341</v>
       </c>
       <c r="I35" t="n">
-        <v>212.0155798067217</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J35" t="n">
         <v>466.7546155663283</v>
@@ -33731,13 +33731,13 @@
         <v>28.41775520521101</v>
       </c>
       <c r="I36" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J36" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K36" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L36" t="n">
         <v>638.8832749473073</v>
@@ -33749,10 +33749,10 @@
         <v>765.2790490071786</v>
       </c>
       <c r="O36" t="n">
-        <v>700.0808204437244</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P36" t="n">
-        <v>322.8964653704906</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q36" t="n">
         <v>139.9817740860215</v>
@@ -33913,10 +33913,10 @@
         <v>790.8204499236508</v>
       </c>
       <c r="Q38" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669214</v>
       </c>
       <c r="R38" t="n">
-        <v>345.4516222043738</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S38" t="n">
         <v>125.3175546292901</v>
@@ -33968,34 +33968,34 @@
         <v>28.41775520521101</v>
       </c>
       <c r="I39" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J39" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K39" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L39" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M39" t="n">
-        <v>734.2678383622658</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N39" t="n">
         <v>765.2790490071786</v>
       </c>
       <c r="O39" t="n">
-        <v>700.0808204437244</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P39" t="n">
-        <v>561.8765786214699</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q39" t="n">
-        <v>375.5996128485291</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R39" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S39" t="n">
         <v>54.65449286742439</v>
@@ -34126,7 +34126,7 @@
         <v>56.32071997135341</v>
       </c>
       <c r="I41" t="n">
-        <v>212.0155798067217</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J41" t="n">
         <v>466.7546155663283</v>
@@ -34153,7 +34153,7 @@
         <v>593.8732233669224</v>
       </c>
       <c r="R41" t="n">
-        <v>345.4516222043726</v>
+        <v>345.451622204372</v>
       </c>
       <c r="S41" t="n">
         <v>125.3175546292901</v>
@@ -34205,34 +34205,34 @@
         <v>28.41775520521101</v>
       </c>
       <c r="I42" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J42" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K42" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L42" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M42" t="n">
-        <v>734.267838362266</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N42" t="n">
         <v>765.2790490071786</v>
       </c>
       <c r="O42" t="n">
-        <v>700.0808204437244</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P42" t="n">
-        <v>561.8765786214699</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q42" t="n">
-        <v>375.5996128485291</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R42" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S42" t="n">
         <v>54.65449286742439</v>
@@ -34366,7 +34366,7 @@
         <v>212.0155798067232</v>
       </c>
       <c r="J44" t="n">
-        <v>466.7546155663268</v>
+        <v>466.7546155663283</v>
       </c>
       <c r="K44" t="n">
         <v>699.5441750817577</v>
@@ -34390,7 +34390,7 @@
         <v>593.8732233669224</v>
       </c>
       <c r="R44" t="n">
-        <v>345.4516222043726</v>
+        <v>345.451622204372</v>
       </c>
       <c r="S44" t="n">
         <v>125.3175546292901</v>
@@ -34442,34 +34442,34 @@
         <v>28.41775520521101</v>
       </c>
       <c r="I45" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J45" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K45" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L45" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M45" t="n">
-        <v>734.267838362266</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N45" t="n">
         <v>765.2790490071786</v>
       </c>
       <c r="O45" t="n">
-        <v>700.0808204437244</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P45" t="n">
-        <v>561.8765786214699</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q45" t="n">
-        <v>375.5996128485291</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R45" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S45" t="n">
         <v>54.65449286742439</v>
@@ -34933,31 +34933,31 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>190.7870009687126</v>
+        <v>190.7870009687125</v>
       </c>
       <c r="K5" t="n">
-        <v>337.1912865554005</v>
+        <v>337.1912865554004</v>
       </c>
       <c r="L5" t="n">
-        <v>455.5901143923322</v>
+        <v>455.5901143923319</v>
       </c>
       <c r="M5" t="n">
-        <v>538.9211158302268</v>
+        <v>538.9211158302265</v>
       </c>
       <c r="N5" t="n">
-        <v>552.3018354129115</v>
+        <v>552.3018354129113</v>
       </c>
       <c r="O5" t="n">
-        <v>508.0530008882191</v>
+        <v>508.053000888219</v>
       </c>
       <c r="P5" t="n">
-        <v>398.7619862193719</v>
+        <v>398.7619862193716</v>
       </c>
       <c r="Q5" t="n">
-        <v>250.7943048037195</v>
+        <v>250.7943048037194</v>
       </c>
       <c r="R5" t="n">
-        <v>59.61319854222478</v>
+        <v>59.61319854222472</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -35012,28 +35012,28 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>94.6235045359771</v>
+        <v>94.62350453597705</v>
       </c>
       <c r="K6" t="n">
         <v>240.6709080609567</v>
       </c>
       <c r="L6" t="n">
-        <v>370.4021821340054</v>
+        <v>370.4021821340053</v>
       </c>
       <c r="M6" t="n">
-        <v>451.7942679013292</v>
+        <v>451.7942679013291</v>
       </c>
       <c r="N6" t="n">
-        <v>478.3061046004592</v>
+        <v>478.3061046004591</v>
       </c>
       <c r="O6" t="n">
-        <v>415.1124034525806</v>
+        <v>415.1124034525805</v>
       </c>
       <c r="P6" t="n">
         <v>313.6359509859624</v>
       </c>
       <c r="Q6" t="n">
-        <v>159.2338966127272</v>
+        <v>159.2338966127271</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35091,10 +35091,10 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>45.57841661306622</v>
+        <v>45.5784166130662</v>
       </c>
       <c r="K7" t="n">
-        <v>206.0476595443196</v>
+        <v>206.0476595443195</v>
       </c>
       <c r="L7" t="n">
         <v>319.7573721701981</v>
@@ -35106,13 +35106,13 @@
         <v>344.8569461675401</v>
       </c>
       <c r="O7" t="n">
-        <v>302.3531302226398</v>
+        <v>302.3531302226397</v>
       </c>
       <c r="P7" t="n">
         <v>234.9570711451104</v>
       </c>
       <c r="Q7" t="n">
-        <v>78.39423853789366</v>
+        <v>78.39423853789363</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -35170,31 +35170,31 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>190.7870009687127</v>
+        <v>190.7870009687125</v>
       </c>
       <c r="K8" t="n">
-        <v>337.1912865554006</v>
+        <v>337.1912865554004</v>
       </c>
       <c r="L8" t="n">
-        <v>455.5901143923323</v>
+        <v>455.5901143923319</v>
       </c>
       <c r="M8" t="n">
-        <v>538.9211158302269</v>
+        <v>538.9211158302265</v>
       </c>
       <c r="N8" t="n">
-        <v>552.3018354129115</v>
+        <v>552.3018354129113</v>
       </c>
       <c r="O8" t="n">
-        <v>508.0530008882193</v>
+        <v>508.053000888219</v>
       </c>
       <c r="P8" t="n">
-        <v>398.761986219372</v>
+        <v>398.7619862193716</v>
       </c>
       <c r="Q8" t="n">
-        <v>250.7943048037196</v>
+        <v>250.7943048037194</v>
       </c>
       <c r="R8" t="n">
-        <v>59.61319854222484</v>
+        <v>59.61319854222472</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -35249,28 +35249,28 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>94.62350453597716</v>
+        <v>94.62350453597705</v>
       </c>
       <c r="K9" t="n">
-        <v>240.6709080609568</v>
+        <v>240.6709080609567</v>
       </c>
       <c r="L9" t="n">
-        <v>370.4021821340056</v>
+        <v>370.4021821340057</v>
       </c>
       <c r="M9" t="n">
-        <v>451.7942679013293</v>
+        <v>451.7942679013291</v>
       </c>
       <c r="N9" t="n">
-        <v>478.3061046004593</v>
+        <v>478.3061046004591</v>
       </c>
       <c r="O9" t="n">
-        <v>415.1124034525807</v>
+        <v>415.1124034525805</v>
       </c>
       <c r="P9" t="n">
-        <v>313.6359509859626</v>
+        <v>313.6359509859624</v>
       </c>
       <c r="Q9" t="n">
-        <v>159.2338966127272</v>
+        <v>159.2338966127271</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35328,28 +35328,28 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>45.57841661306625</v>
+        <v>45.5784166130662</v>
       </c>
       <c r="K10" t="n">
-        <v>206.0476595443196</v>
+        <v>206.0476595443195</v>
       </c>
       <c r="L10" t="n">
-        <v>319.7573721701982</v>
+        <v>319.7573721701981</v>
       </c>
       <c r="M10" t="n">
-        <v>347.6333793934839</v>
+        <v>347.6333793934838</v>
       </c>
       <c r="N10" t="n">
-        <v>344.8569461675402</v>
+        <v>344.8569461675401</v>
       </c>
       <c r="O10" t="n">
-        <v>302.3531302226398</v>
+        <v>302.3531302226397</v>
       </c>
       <c r="P10" t="n">
-        <v>234.9570711451105</v>
+        <v>234.9570711451104</v>
       </c>
       <c r="Q10" t="n">
-        <v>78.39423853789368</v>
+        <v>78.39423853789363</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
@@ -35492,13 +35492,13 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L12" t="n">
-        <v>500.3288951674331</v>
+        <v>0</v>
       </c>
       <c r="M12" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N12" t="n">
-        <v>334.4034204366973</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O12" t="n">
         <v>557.48457599928</v>
@@ -35507,7 +35507,7 @@
         <v>0</v>
       </c>
       <c r="Q12" t="n">
-        <v>0</v>
+        <v>200.7949786802852</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35720,7 +35720,7 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>1.785239600774929</v>
+        <v>0</v>
       </c>
       <c r="J15" t="n">
         <v>151.1582247754088</v>
@@ -35729,19 +35729,19 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L15" t="n">
-        <v>500.3288951674331</v>
+        <v>376.3054212373395</v>
       </c>
       <c r="M15" t="n">
-        <v>603.4126137641938</v>
+        <v>0</v>
       </c>
       <c r="N15" t="n">
         <v>633.9373369238454</v>
       </c>
       <c r="O15" t="n">
-        <v>256.1654199113569</v>
+        <v>557.48457599928</v>
       </c>
       <c r="P15" t="n">
-        <v>0</v>
+        <v>427.9021712071396</v>
       </c>
       <c r="Q15" t="n">
         <v>0</v>
@@ -35957,34 +35957,34 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>0</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J18" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K18" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L18" t="n">
-        <v>0</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M18" t="n">
-        <v>592.1338044402476</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N18" t="n">
         <v>633.9373369238454</v>
       </c>
       <c r="O18" t="n">
-        <v>557.48457599928</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P18" t="n">
-        <v>427.9021712071396</v>
+        <v>0</v>
       </c>
       <c r="Q18" t="n">
-        <v>235.6178387625076</v>
+        <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>37.00975247789214</v>
+        <v>0</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -36045,7 +36045,7 @@
         <v>264.332588409635</v>
       </c>
       <c r="L19" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191334</v>
       </c>
       <c r="M19" t="n">
         <v>426.2724270010452</v>
@@ -36057,7 +36057,7 @@
         <v>373.2618997060455</v>
       </c>
       <c r="P19" t="n">
-        <v>295.6317733066272</v>
+        <v>295.631773306625</v>
       </c>
       <c r="Q19" t="n">
         <v>120.4022572998984</v>
@@ -36194,34 +36194,34 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>0</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J21" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K21" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L21" t="n">
-        <v>0</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M21" t="n">
-        <v>592.1338044402476</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N21" t="n">
         <v>633.9373369238454</v>
       </c>
       <c r="O21" t="n">
-        <v>557.48457599928</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P21" t="n">
-        <v>427.9021712071396</v>
+        <v>0</v>
       </c>
       <c r="Q21" t="n">
-        <v>235.6178387625076</v>
+        <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>37.00975247789214</v>
+        <v>0</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -36276,7 +36276,7 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295757</v>
       </c>
       <c r="K22" t="n">
         <v>264.332588409635</v>
@@ -36431,34 +36431,34 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>0</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J24" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K24" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L24" t="n">
-        <v>0</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M24" t="n">
-        <v>592.1338044402476</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N24" t="n">
         <v>633.9373369238454</v>
       </c>
       <c r="O24" t="n">
-        <v>557.48457599928</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P24" t="n">
-        <v>427.9021712071396</v>
+        <v>0</v>
       </c>
       <c r="Q24" t="n">
-        <v>235.6178387625076</v>
+        <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>37.00975247789214</v>
+        <v>0</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -36589,7 +36589,7 @@
         <v>0</v>
       </c>
       <c r="I26" t="n">
-        <v>1.5396902363158</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J26" t="n">
         <v>285.708711039642</v>
@@ -36616,7 +36616,7 @@
         <v>371.5675334924729</v>
       </c>
       <c r="R26" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902399</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36668,34 +36668,34 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>0</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J27" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K27" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L27" t="n">
-        <v>0</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M27" t="n">
-        <v>592.1338044402477</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N27" t="n">
         <v>633.9373369238454</v>
       </c>
       <c r="O27" t="n">
-        <v>557.48457599928</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P27" t="n">
-        <v>427.9021712071396</v>
+        <v>0</v>
       </c>
       <c r="Q27" t="n">
-        <v>235.6178387625076</v>
+        <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>37.00975247789214</v>
+        <v>0</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -36850,7 +36850,7 @@
         <v>559.5874541683813</v>
       </c>
       <c r="Q29" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924719</v>
       </c>
       <c r="R29" t="n">
         <v>129.8660843902405</v>
@@ -36905,34 +36905,34 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>0</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J30" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K30" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L30" t="n">
-        <v>0</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M30" t="n">
-        <v>592.1338044402477</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N30" t="n">
         <v>633.9373369238454</v>
       </c>
       <c r="O30" t="n">
-        <v>557.48457599928</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P30" t="n">
-        <v>427.9021712071396</v>
+        <v>0</v>
       </c>
       <c r="Q30" t="n">
-        <v>235.6178387625076</v>
+        <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>37.00975247789214</v>
+        <v>0</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -37069,7 +37069,7 @@
         <v>285.708711039642</v>
       </c>
       <c r="K32" t="n">
-        <v>479.4543240367756</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L32" t="n">
         <v>632.079992146269</v>
@@ -37142,13 +37142,13 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>0</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J33" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K33" t="n">
-        <v>188.9220579561602</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L33" t="n">
         <v>500.3288951674331</v>
@@ -37160,7 +37160,7 @@
         <v>633.9373369238454</v>
       </c>
       <c r="O33" t="n">
-        <v>557.48457599928</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P33" t="n">
         <v>0</v>
@@ -37300,7 +37300,7 @@
         <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>1.5396902363158</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J35" t="n">
         <v>285.708711039642</v>
@@ -37379,13 +37379,13 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>0</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J36" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K36" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L36" t="n">
         <v>500.3288951674331</v>
@@ -37397,10 +37397,10 @@
         <v>633.9373369238454</v>
       </c>
       <c r="O36" t="n">
-        <v>557.48457599928</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P36" t="n">
-        <v>188.9220579561604</v>
+        <v>0</v>
       </c>
       <c r="Q36" t="n">
         <v>0</v>
@@ -37561,10 +37561,10 @@
         <v>559.5874541683813</v>
       </c>
       <c r="Q38" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924719</v>
       </c>
       <c r="R38" t="n">
-        <v>129.8660843902418</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37616,34 +37616,34 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>0</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J39" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K39" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L39" t="n">
-        <v>0</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M39" t="n">
-        <v>592.1338044402476</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N39" t="n">
         <v>633.9373369238454</v>
       </c>
       <c r="O39" t="n">
-        <v>557.48457599928</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P39" t="n">
-        <v>427.9021712071396</v>
+        <v>0</v>
       </c>
       <c r="Q39" t="n">
-        <v>235.6178387625076</v>
+        <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>37.00975247789214</v>
+        <v>0</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -37774,7 +37774,7 @@
         <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>1.5396902363158</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J41" t="n">
         <v>285.708711039642</v>
@@ -37801,7 +37801,7 @@
         <v>371.5675334924729</v>
       </c>
       <c r="R41" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902399</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37853,34 +37853,34 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>0</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J42" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K42" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L42" t="n">
-        <v>0</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M42" t="n">
-        <v>592.1338044402477</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N42" t="n">
         <v>633.9373369238454</v>
       </c>
       <c r="O42" t="n">
-        <v>557.48457599928</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P42" t="n">
-        <v>427.9021712071396</v>
+        <v>0</v>
       </c>
       <c r="Q42" t="n">
-        <v>235.6178387625076</v>
+        <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>37.00975247789214</v>
+        <v>0</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -37947,7 +37947,7 @@
         <v>450.5570744930849</v>
       </c>
       <c r="N43" t="n">
-        <v>445.9107804819471</v>
+        <v>445.9107804819472</v>
       </c>
       <c r="O43" t="n">
         <v>397.5465471980852</v>
@@ -38014,7 +38014,7 @@
         <v>1.539690236317284</v>
       </c>
       <c r="J44" t="n">
-        <v>285.7087110396405</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K44" t="n">
         <v>479.4543240367771</v>
@@ -38038,7 +38038,7 @@
         <v>371.5675334924729</v>
       </c>
       <c r="R44" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902399</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38090,34 +38090,34 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>0</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J45" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K45" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L45" t="n">
-        <v>0</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M45" t="n">
-        <v>592.1338044402477</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N45" t="n">
         <v>633.9373369238454</v>
       </c>
       <c r="O45" t="n">
-        <v>557.48457599928</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P45" t="n">
-        <v>427.9021712071396</v>
+        <v>0</v>
       </c>
       <c r="Q45" t="n">
-        <v>235.6178387625076</v>
+        <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>37.00975247789214</v>
+        <v>0</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
